--- a/backend/src/database_export.xlsx
+++ b/backend/src/database_export.xlsx
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,34 +435,694 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="str">
+        <v>120.00</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>141.00</v>
-      </c>
-      <c r="C2">
+      <c r="E2" t="str">
+        <v>Gamer Shop</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="str">
+        <v>32.00</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="E2" t="str">
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2.50</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="str">
+        <v>18.00</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="str">
+        <v>25.00</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="str">
+        <v>19.80</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="str">
+        <v>4.67</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="str">
+        <v>13.00</v>
+      </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="str">
+        <v>48.00</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" t="str">
+        <v>0.67</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="C13">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" t="str">
+        <v>12.00</v>
+      </c>
+      <c r="C14">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="str">
+        <v>0.80</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" t="str">
+        <v>2.83</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" t="str">
+        <v>1.58</v>
+      </c>
+      <c r="C17">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="C18">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="C19">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="str">
+        <v>4.00</v>
+      </c>
+      <c r="C20">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" t="str">
+        <v>2.17</v>
+      </c>
+      <c r="C21">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22" t="str">
+        <v>38.20</v>
+      </c>
+      <c r="C22">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="F22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" t="str">
+        <v>0.10</v>
+      </c>
+      <c r="C23">
+        <v>57</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="F23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="C24">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>38</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Emmas shop</v>
+      </c>
+      <c r="F24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="C25">
+        <v>66</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26" t="str">
+        <v>23.00</v>
+      </c>
+      <c r="C26">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" t="str">
+        <v>7.00</v>
+      </c>
+      <c r="C27">
+        <v>71</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>31</v>
+      </c>
+      <c r="B28" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C28">
+        <v>80</v>
+      </c>
+      <c r="D28">
+        <v>39</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Shopwase</v>
+      </c>
+      <c r="F28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C29">
+        <v>78</v>
+      </c>
+      <c r="D29">
+        <v>39</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Shopwase</v>
+      </c>
+      <c r="F29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="C30">
+        <v>74</v>
+      </c>
+      <c r="D30">
+        <v>39</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Shopwase</v>
+      </c>
+      <c r="F30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31" t="str">
+        <v>7.00</v>
+      </c>
+      <c r="C31">
+        <v>76</v>
+      </c>
+      <c r="D31">
+        <v>39</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Shopwase</v>
+      </c>
+      <c r="F31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32" t="str">
+        <v>5.90</v>
+      </c>
+      <c r="C32">
+        <v>81</v>
+      </c>
+      <c r="D32">
+        <v>39</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Shopwase</v>
+      </c>
+      <c r="F32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>36</v>
+      </c>
+      <c r="B33" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C33">
+        <v>83</v>
+      </c>
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Sanaths shop</v>
+      </c>
+      <c r="F33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="B34" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="C34">
+        <v>86</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>39</v>
+      </c>
+      <c r="B35" t="str">
+        <v>112.00</v>
+      </c>
+      <c r="C35">
+        <v>98</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="str">
         <v>Verve</v>
       </c>
-      <c r="F2">
-        <v>2</v>
+      <c r="F35">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F35"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -492,10 +1152,10 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
       </c>
       <c r="C2" t="str">
         <v>kg</v>
@@ -504,94 +1164,1974 @@
         <v>buying</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="str">
-        <v>grams</v>
+        <v>One box of 6</v>
       </c>
       <c r="D3" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="str">
-        <v>box</v>
+        <v>A bar of 125g</v>
       </c>
       <c r="D4" t="str">
         <v>selling</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="str">
-        <v>crate</v>
+        <v>Ponch</v>
       </c>
       <c r="D5" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Heap of 5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="str">
+        <v>A box of 12 packs</v>
+      </c>
+      <c r="D7" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <v>One Pack of 50 teabags</v>
+      </c>
+      <c r="D8" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="str">
+        <v xml:space="preserve">1 by 6 pack </v>
+      </c>
+      <c r="D9" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="str">
+        <v>350ml</v>
+      </c>
+      <c r="D10" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="str">
+        <v>One medium onion</v>
+      </c>
+      <c r="D11" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="str">
+        <v>A box of 4 containers</v>
+      </c>
+      <c r="D12" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="str">
+        <v>One 2.5l container</v>
+      </c>
+      <c r="D13" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="str">
+        <v>One box of 6 bottles</v>
+      </c>
+      <c r="D14" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="str">
+        <v>One 2l bottle</v>
+      </c>
+      <c r="D15" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E15">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="str">
+        <v>One by 10</v>
+      </c>
+      <c r="D16" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E16">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="str">
+        <v xml:space="preserve">One pack </v>
+      </c>
+      <c r="D17" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Tray of eggs</v>
+      </c>
+      <c r="D18" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E18">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" t="str">
+        <v>One egg</v>
+      </c>
+      <c r="D19" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Pack of 50</v>
+      </c>
+      <c r="D20" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="str">
+        <v>One pack</v>
+      </c>
+      <c r="D21" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Tray</v>
+      </c>
+      <c r="D22" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E22">
+        <v>32</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Pack of 10 eggs</v>
+      </c>
+      <c r="D23" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Per Egg</v>
+      </c>
+      <c r="D24" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E24">
+        <v>31</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Box</v>
+      </c>
+      <c r="D25" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E25">
+        <v>35</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Heap of 10</v>
+      </c>
+      <c r="D26" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E26">
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Case of 10 2kg packs</v>
+      </c>
+      <c r="D27" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E27">
+        <v>37</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>19</v>
+      </c>
+      <c r="C28" t="str">
+        <v>One 2kg pack</v>
+      </c>
+      <c r="D28" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E28">
+        <v>36</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Case of 10 2kg packs</v>
+      </c>
+      <c r="D29" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E29">
+        <v>39</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30" t="str">
+        <v>One 2kg pack</v>
+      </c>
+      <c r="D30" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E30">
+        <v>38</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Box</v>
+      </c>
+      <c r="D31" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E31">
+        <v>41</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>21</v>
+      </c>
+      <c r="C32" t="str">
+        <v>A heap of 5</v>
+      </c>
+      <c r="D32" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>21</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Each</v>
+      </c>
+      <c r="D33" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E33">
+        <v>41</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Each</v>
+      </c>
+      <c r="D34" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E34">
+        <v>35</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>22</v>
+      </c>
+      <c r="C35" t="str">
+        <v>A case of 12 2kg boxes</v>
+      </c>
+      <c r="D35" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E35">
+        <v>45</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36" t="str">
+        <v>One 2kg Box</v>
+      </c>
+      <c r="D36" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E36">
+        <v>44</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="C37" t="str">
+        <v>A Box of 6 2kg Bags</v>
+      </c>
+      <c r="D37" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E37">
+        <v>47</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>23</v>
+      </c>
+      <c r="C38" t="str">
+        <v>One 2kg Bag</v>
+      </c>
+      <c r="D38" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E38">
+        <v>46</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>24</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Per Loaf</v>
+      </c>
+      <c r="D39" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E39">
+        <v>49</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>24</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Per Loaf</v>
+      </c>
+      <c r="D40" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E40">
+        <v>48</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>25</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Crate</v>
+      </c>
+      <c r="D41" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E41">
+        <v>51</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>25</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Per Loaf</v>
+      </c>
+      <c r="D42" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>26</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Box of 6 boxes</v>
+      </c>
+      <c r="D43" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E43">
+        <v>53</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>26</v>
+      </c>
+      <c r="C44" t="str">
+        <v>One 1kg box</v>
+      </c>
+      <c r="D44" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E44">
+        <v>52</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>27</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Box of 40</v>
+      </c>
+      <c r="D45" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E45">
+        <v>55</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>27</v>
+      </c>
+      <c r="C46" t="str">
+        <v>1</v>
+      </c>
+      <c r="D46" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E46">
+        <v>54</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>27</v>
+      </c>
+      <c r="D47" t="str">
+        <v>selling</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>28</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Box of 10</v>
+      </c>
+      <c r="D48" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E48">
+        <v>58</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>28</v>
+      </c>
+      <c r="C49" t="str">
+        <v>2litre Bottle</v>
+      </c>
+      <c r="D49" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E49">
+        <v>57</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>29</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Boxes</v>
+      </c>
+      <c r="D50" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E50">
+        <v>60</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>29</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Each</v>
+      </c>
+      <c r="D51" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E51">
+        <v>59</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>62</v>
+      </c>
+      <c r="B52">
+        <v>29</v>
+      </c>
+      <c r="C52" t="str">
+        <v>crate</v>
+      </c>
+      <c r="D52" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E52">
+        <v>59</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>65</v>
+      </c>
+      <c r="B53">
+        <v>31</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Case 12</v>
+      </c>
+      <c r="D53" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E53">
+        <v>66</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>66</v>
+      </c>
+      <c r="B54">
+        <v>31</v>
+      </c>
+      <c r="C54" t="str">
+        <v>1</v>
+      </c>
+      <c r="D54" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E54">
+        <v>65</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>67</v>
+      </c>
+      <c r="B55">
+        <v>32</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Case of 20</v>
+      </c>
+      <c r="D55" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E55">
+        <v>68</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>68</v>
+      </c>
+      <c r="B56">
+        <v>32</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Per one kg bag</v>
+      </c>
+      <c r="D56" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E56">
+        <v>67</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>69</v>
+      </c>
+      <c r="B57">
+        <v>33</v>
+      </c>
+      <c r="C57" t="str">
+        <v xml:space="preserve">Case of 10 </v>
+      </c>
+      <c r="D57" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E57">
+        <v>71</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>70</v>
+      </c>
+      <c r="B58">
+        <v>33</v>
+      </c>
+      <c r="C58" t="str">
+        <v xml:space="preserve">Case of 10 </v>
+      </c>
+      <c r="D58" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E58">
+        <v>72</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>71</v>
+      </c>
+      <c r="B59">
+        <v>33</v>
+      </c>
+      <c r="C59" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="D59" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E59">
+        <v>69</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>72</v>
+      </c>
+      <c r="B60">
+        <v>33</v>
+      </c>
+      <c r="C60" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="D60" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E60">
+        <v>70</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>73</v>
+      </c>
+      <c r="B61">
+        <v>36</v>
+      </c>
+      <c r="C61" t="str">
+        <v xml:space="preserve">Case of 12 </v>
+      </c>
+      <c r="D61" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E61">
+        <v>74</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>74</v>
+      </c>
+      <c r="B62">
+        <v>36</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Each</v>
+      </c>
+      <c r="D62" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E62">
+        <v>73</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>75</v>
+      </c>
+      <c r="B63">
+        <v>37</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Case of 24</v>
+      </c>
+      <c r="D63" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E63">
+        <v>76</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>76</v>
+      </c>
+      <c r="B64">
+        <v>37</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Each</v>
+      </c>
+      <c r="D64" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E64">
+        <v>75</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>77</v>
+      </c>
+      <c r="B65">
+        <v>38</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Case of 12</v>
+      </c>
+      <c r="D65" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E65">
+        <v>78</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>78</v>
+      </c>
+      <c r="B66">
+        <v>38</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Each</v>
+      </c>
+      <c r="D66" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E66">
+        <v>77</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>79</v>
+      </c>
+      <c r="B67">
+        <v>39</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Crate of 24</v>
+      </c>
+      <c r="D67" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E67">
+        <v>80</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>80</v>
+      </c>
+      <c r="B68">
+        <v>39</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Each</v>
+      </c>
+      <c r="D68" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E68">
+        <v>79</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>81</v>
+      </c>
+      <c r="B69">
+        <v>40</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Trays</v>
+      </c>
+      <c r="D69" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E69">
+        <v>82</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>82</v>
+      </c>
+      <c r="B70">
+        <v>40</v>
+      </c>
+      <c r="C70" t="str">
+        <v xml:space="preserve">Each </v>
+      </c>
+      <c r="D70" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E70">
+        <v>81</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>83</v>
+      </c>
+      <c r="B71">
+        <v>41</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Kg</v>
+      </c>
+      <c r="D71" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E71">
+        <v>84</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>84</v>
+      </c>
+      <c r="B72">
+        <v>41</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Grams</v>
+      </c>
+      <c r="D72" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E72">
+        <v>83</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>85</v>
+      </c>
+      <c r="B73">
+        <v>41</v>
+      </c>
+      <c r="C73" t="str">
+        <v>crate</v>
+      </c>
+      <c r="D73" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E73">
+        <v>83</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>86</v>
+      </c>
+      <c r="B74">
+        <v>43</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Ponch</v>
+      </c>
+      <c r="D74" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E74">
+        <v>87</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>87</v>
+      </c>
+      <c r="B75">
+        <v>43</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Head of 10</v>
+      </c>
+      <c r="D75" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E75">
+        <v>86</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>88</v>
+      </c>
+      <c r="B76">
+        <v>43</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Each</v>
+      </c>
+      <c r="D76" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E76">
+        <v>86</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>89</v>
+      </c>
+      <c r="B77">
+        <v>45</v>
+      </c>
+      <c r="C77" t="str">
+        <v>1x6</v>
+      </c>
+      <c r="D77" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E77">
+        <v>90</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>90</v>
+      </c>
+      <c r="B78">
+        <v>45</v>
+      </c>
+      <c r="C78" t="str">
+        <v>1</v>
+      </c>
+      <c r="D78" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E78">
+        <v>89</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>98</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="str">
+        <v>kg</v>
+      </c>
+      <c r="D79" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E79">
+        <v>99</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>99</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="str">
+        <v>grams</v>
+      </c>
+      <c r="D80" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E80">
+        <v>98</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>100</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="str">
+        <v>xxx</v>
+      </c>
+      <c r="D81" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E81">
+        <v>98</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>103</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" t="str">
+        <v>zzz</v>
+      </c>
+      <c r="D82" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E82">
+        <v>100</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>104</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="str">
+        <v>asd</v>
+      </c>
+      <c r="D83" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>105</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" t="str">
+        <v>dsa</v>
+      </c>
+      <c r="D84" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E84">
+        <v>99</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>106</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" t="str">
+        <v>dsa</v>
+      </c>
+      <c r="D85" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E85">
+        <v>99</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>107</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" t="str">
+        <v>sanath</v>
+      </c>
+      <c r="D86" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E86">
+        <v>100</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>108</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Apple</v>
+      </c>
+      <c r="D87" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E87">
+        <v>104</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G87"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -899,9 +3439,259 @@
         <v>Shoprite</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13" t="str">
+        <v>sanath1999</v>
+      </c>
+      <c r="C13" t="str">
+        <v>$2a$10$NCghsuHsCM5g/GAARn1zLOMIudzJRWXjz00Zeucn4pYlyX5HkyuMa</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45553.72384259259</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Sanath</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Pao</v>
+      </c>
+      <c r="G13" t="str">
+        <v>sanath@sanath.com</v>
+      </c>
+      <c r="H13" t="str">
+        <v>8315394460</v>
+      </c>
+      <c r="I13" t="str">
+        <v>222 columbia street</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Sanath shop</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>36</v>
+      </c>
+      <c r="B14" t="str">
+        <v>sbdndbfbfbf</v>
+      </c>
+      <c r="C14" t="str">
+        <v>$2a$10$CAPviOMoXBJabmeZf8KCYuwY50Dmv20iLvgEaphFqC2aeLMEu.0oS</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45553.72546296296</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Sanath</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Pai</v>
+      </c>
+      <c r="G14" t="str">
+        <v>spai5@ucsc.edu</v>
+      </c>
+      <c r="H14" t="str">
+        <v>8315294460</v>
+      </c>
+      <c r="I14" t="str">
+        <v>365 Western Drive Unit N</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Ajsjsndbsbf</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>38</v>
+      </c>
+      <c r="B15" t="str">
+        <v>emmariley</v>
+      </c>
+      <c r="C15" t="str">
+        <v>$2a$10$1yns3mSl12p4ixv1hmVVguRSEDYrwpyPLWN0kgWrI9STMNEgUptYq</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45553.797164351854</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Emma</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Riley</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Emmariley19@gmail.com</v>
+      </c>
+      <c r="H15" t="str">
+        <v>2068236816</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Lorch Hall</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Emmas shop</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>39</v>
+      </c>
+      <c r="B16" t="str">
+        <v>shopwase</v>
+      </c>
+      <c r="C16" t="str">
+        <v>$2a$10$/ar9WyQGCODf6UK.P9mYaeq99ObDBXlZuQ0onxM8pAN6bdhTYlNKO</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45555.49804398148</v>
+      </c>
+      <c r="E16" t="str">
+        <v xml:space="preserve">Ben </v>
+      </c>
+      <c r="F16" t="str">
+        <v>Kabyi</v>
+      </c>
+      <c r="H16" t="str">
+        <v>0765957242</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Shopwase</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17" t="str">
+        <v>spaispai</v>
+      </c>
+      <c r="C17" t="str">
+        <v>$2a$10$mE/8wO1NHo.47RcFPKNoOuBn/wMRVnR5fGSoi.2lfKbgVaKLpOOsu</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45556.78238425926</v>
+      </c>
+      <c r="E17" t="str">
+        <v>sanath</v>
+      </c>
+      <c r="F17" t="str">
+        <v>pai</v>
+      </c>
+      <c r="G17" t="str">
+        <v>spai@ucsc.edu</v>
+      </c>
+      <c r="H17" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="I17" t="str">
+        <v>222 Columbia Street</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Sanaths shop</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>41</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Rita</v>
+      </c>
+      <c r="C18" t="str">
+        <v>$2a$10$Pi4ICWD9ycRgzV4Rve2jgufMGNTzntbhko9/G4ANcJJtF68FXqJMK</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45559.474953703706</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Rita</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Munachilenga</v>
+      </c>
+      <c r="G18" t="str">
+        <v>munachilengarita@gmail.com</v>
+      </c>
+      <c r="H18" t="str">
+        <v>0975503422</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Kalingalinga compound</v>
+      </c>
+      <c r="J18" t="str">
+        <v>E Stores</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>42</v>
+      </c>
+      <c r="B19" t="str">
+        <v>LANGSON</v>
+      </c>
+      <c r="C19" t="str">
+        <v>$2a$10$RVsiTCMOMKePjB9H9Bjl2eg1gsiX/xRqOUm9sZ0kXLPz9awYziwLu</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45560.607615740744</v>
+      </c>
+      <c r="E19" t="str">
+        <v>LANGSON</v>
+      </c>
+      <c r="F19" t="str">
+        <v>MUWANDIA</v>
+      </c>
+      <c r="G19" t="str">
+        <v>lgmuwandia@gmail.com</v>
+      </c>
+      <c r="H19" t="str">
+        <v>0977887110</v>
+      </c>
+      <c r="I19" t="str">
+        <v>KALINGALINGA</v>
+      </c>
+      <c r="J19" t="str">
+        <v>VYACHE ENTERPRISES</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>43</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Aimz</v>
+      </c>
+      <c r="C20" t="str">
+        <v>$2a$10$f6DquQ0Ael6eucCZJAyATu67ny6Rf3FYX5hR20rr3mdEtR7blx/9e</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45560.610347222224</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Marlone</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Mbewe</v>
+      </c>
+      <c r="G20" t="str">
+        <v>mariozee@ymail.com</v>
+      </c>
+      <c r="H20" t="str">
+        <v>0976443631</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Kalingalinga chifundo market area</v>
+      </c>
+      <c r="J20" t="str">
+        <v xml:space="preserve">Aimz Business </v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J20"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -934,7 +3724,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -984,34 +3774,794 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="str">
-        <v>Apple</v>
+        <v>Plum</v>
       </c>
       <c r="C3" t="str">
         <v>Fruit</v>
       </c>
       <c r="D3" t="str">
-        <v>Gala</v>
+        <v>Red</v>
       </c>
       <c r="E3" t="str">
-        <v>Gala Apple</v>
+        <v/>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="str">
+        <v>White Onions</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Vegetables</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Bathing Soap</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Dettol Soap</v>
+      </c>
+      <c r="D5" t="str">
+        <v>125g</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve">Quick Brew Tagless Teabags </v>
+      </c>
+      <c r="C6" t="str">
+        <v>Beverage</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Pack of 50</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="str">
+        <v xml:space="preserve">Mojo Drink </v>
+      </c>
+      <c r="C7" t="str">
+        <v>Juice</v>
+      </c>
+      <c r="D7" t="str">
+        <v>350mls</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Zamgold Cooking Oil</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Cooking Oil</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2.5 litres</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Zamgold Cooking Oil</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Cooking Oil</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2 litres</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Soft Care Pads</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Sanity Towels</v>
+      </c>
+      <c r="D10" t="str">
+        <v xml:space="preserve">One pack </v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Tray of Eggs</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Eggs</v>
+      </c>
+      <c r="D11" t="str">
+        <v xml:space="preserve">One tray </v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Chicken Eggs</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Eggs</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Tray</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Nik Nax</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Snacks</v>
+      </c>
+      <c r="D13" t="str">
+        <v>One pack</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Tomato</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Fruits and Vegetables</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="B15" t="str">
+        <v>White Spoon Sugar</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Sugar</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2kg</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Boom Washing Powder</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Laundry Detergent</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2kg</v>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Tomato</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Fruits and Vegetables</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Large</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Aloha Washing Powder</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Laundry Detergent</v>
+      </c>
+      <c r="D18" t="str">
+        <v>2kg</v>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" t="str">
+        <v xml:space="preserve">Sunglight Washing Powder </v>
+      </c>
+      <c r="C19" t="str">
+        <v>Laundry Detergent</v>
+      </c>
+      <c r="D19" t="str">
+        <v>2kg</v>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>24</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Bomfwa Bread</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Bread</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Family Loaf 800g</v>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Agogos Bread</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Bread</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Agogos Original 700g</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>26</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Big Tree Corn Flakes</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Cereal</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1kg</v>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>27</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Bananas</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Fruits</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Each</v>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Just Juice</v>
+      </c>
+      <c r="C24" t="str">
+        <v xml:space="preserve">Juices </v>
+      </c>
+      <c r="D24" t="str">
+        <v>2litre bottles</v>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>29</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Organic Apples</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Fruits</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Granny Smith</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Fresh organic Granny Smith apples</v>
+      </c>
+      <c r="F25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26" t="str">
+        <v xml:space="preserve">Fanta </v>
+      </c>
+      <c r="C26" t="str">
+        <v>Drinks</v>
+      </c>
+      <c r="D26" t="str">
+        <v>350ml</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Whitespoon sugar</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Sugar</v>
+      </c>
+      <c r="D27" t="str">
+        <v>1kg</v>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Rice Spice</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Spices</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>34</v>
+      </c>
+      <c r="B29" t="str">
+        <v xml:space="preserve">Sunlight </v>
+      </c>
+      <c r="C29" t="str">
+        <v>Laundry Detergent</v>
+      </c>
+      <c r="D29" t="str">
+        <v>300g</v>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>36</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Coca cola disposable</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Drinks</v>
+      </c>
+      <c r="D30" t="str">
+        <v>350mls</v>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>37</v>
+      </c>
+      <c r="B31" t="str">
+        <v xml:space="preserve">Fanta </v>
+      </c>
+      <c r="C31" t="str">
+        <v>Drinks</v>
+      </c>
+      <c r="D31" t="str">
+        <v>350ml</v>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>38</v>
+      </c>
+      <c r="B32" t="str">
+        <v xml:space="preserve">Fanta </v>
+      </c>
+      <c r="C32" t="str">
+        <v>Drinks</v>
+      </c>
+      <c r="D32" t="str">
+        <v>500mls</v>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>39</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Coca cola bottled</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Drinks</v>
+      </c>
+      <c r="D33" t="str">
+        <v>300mls</v>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>40</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Tray of Eggs</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Eggs</v>
+      </c>
+      <c r="D34" t="str">
+        <v xml:space="preserve">One tray </v>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>41</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Apple</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Fruit</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Gala</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Gala Apple</v>
+      </c>
+      <c r="F35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>42</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Bananas</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Fruits</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Each</v>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>43</v>
+      </c>
+      <c r="B37" t="str">
+        <v>White Onions</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Vegetables</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>44</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Boom Washing Powder</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Laundry Detergent</v>
+      </c>
+      <c r="D38" t="str">
+        <v>250g</v>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>45</v>
+      </c>
+      <c r="B39" t="str">
+        <v xml:space="preserve">Mayonnaise </v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v>375g</v>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>46</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Apple</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Fruit</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Gala</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Gala Apple</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>47</v>
+      </c>
+      <c r="B41" t="str">
+        <v>orange</v>
+      </c>
+      <c r="C41" t="str">
+        <v>fruit</v>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G41"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,28 +4600,28 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="str">
         <v>100.00</v>
       </c>
       <c r="C2" t="str">
-        <v>50.00</v>
+        <v>20.00</v>
       </c>
       <c r="D2" s="1">
-        <v>45547</v>
+        <v>45548</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2" t="str">
-        <v>Verve</v>
+        <v>Gamer Shop</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="str">
         <v>Market A</v>
@@ -1079,28 +4629,28 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" t="str">
-        <v>2.00</v>
+        <v>20.00</v>
       </c>
       <c r="C3" t="str">
-        <v>1000.00</v>
+        <v>4.00</v>
       </c>
       <c r="D3" s="1">
-        <v>45547</v>
+        <v>45552</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G3" t="str">
-        <v>Verve</v>
+        <v>BEMAC</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="str">
         <v>Market A</v>
@@ -1108,65 +4658,558 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" t="str">
-        <v>100.00</v>
+        <v>235.00</v>
       </c>
       <c r="C4" t="str">
         <v>1.00</v>
       </c>
       <c r="D4" s="1">
-        <v>45547</v>
+        <v>45552</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G4" t="str">
-        <v>Verve</v>
+        <v>BEMAC</v>
+      </c>
+      <c r="H4" t="str">
+        <v>BMAC</v>
       </c>
       <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Market A</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" t="str">
-        <v>1000.00</v>
+        <v>24.00</v>
       </c>
       <c r="C5" t="str">
         <v>1.00</v>
       </c>
       <c r="D5" s="1">
-        <v>45547</v>
+        <v>45552</v>
       </c>
       <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="H5" t="str">
+        <v xml:space="preserve">Moyo trading </v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="str">
+        <v>950.00</v>
+      </c>
+      <c r="C6" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H6" t="str">
+        <v>BMAC</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="str">
+        <v>80.00</v>
+      </c>
+      <c r="C7" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H7" t="str">
+        <v>BMAC</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Market A</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C9" t="str">
+        <v>27.00</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Market A</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C10" t="str">
+        <v>135.00</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Market A</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" t="str">
+        <v>20.00</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H11" t="str">
+        <v>BMAC</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C12" t="str">
+        <v>4.00</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Market A</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Market C</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>23</v>
+      </c>
+      <c r="B14" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H14" t="str">
+        <v>BMAC</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15" t="str">
+        <v>30.00</v>
+      </c>
+      <c r="C15" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E15">
+        <v>58</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="I15">
+        <v>28</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Market A</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16" t="str">
+        <v>36.00</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45553</v>
+      </c>
+      <c r="E16">
+        <v>59</v>
+      </c>
+      <c r="F16">
+        <v>38</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Emmas shop</v>
+      </c>
+      <c r="I16">
+        <v>29</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Market A</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>26</v>
+      </c>
+      <c r="B17" t="str">
+        <v>555.00</v>
+      </c>
+      <c r="C17" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45554</v>
+      </c>
+      <c r="E17">
+        <v>67</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H17" t="str">
+        <v>BMAC</v>
+      </c>
+      <c r="I17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>27</v>
+      </c>
+      <c r="B18" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1000.00</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45556</v>
+      </c>
+      <c r="E18">
+        <v>84</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Sanaths shop</v>
+      </c>
+      <c r="I18">
+        <v>41</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Market A</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>28</v>
+      </c>
+      <c r="B19" t="str">
+        <v>70.00</v>
+      </c>
+      <c r="C19" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E19">
+        <v>31</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Market A</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E20">
+        <v>98</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Verve</v>
+      </c>
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="J20" t="str">
+        <v>Market A</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>31</v>
+      </c>
+      <c r="B21" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1000.00</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E21">
+        <v>99</v>
+      </c>
+      <c r="F21">
         <v>5</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G21" t="str">
         <v>Verve</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="str">
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Market A</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>32</v>
+      </c>
+      <c r="B22" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Verve</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22" t="str">
         <v>Market A</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J22"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1299,19 +5342,19 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="str">
-        <v>Sanath</v>
+        <v>BMAC</v>
       </c>
       <c r="C8" t="str">
-        <v>Santa Cruz CA</v>
+        <v>Kalingalinga</v>
       </c>
       <c r="D8" t="str">
-        <v>8315294460</v>
+        <v>0123456789</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +5366,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1356,85 +5399,943 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="str">
-        <v>100.00</v>
+        <v>30.00</v>
       </c>
       <c r="D2" t="str">
-        <v>10.00</v>
+        <v>4.00</v>
       </c>
       <c r="E2" s="1">
-        <v>45547</v>
+        <v>45552</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G2" t="str">
-        <v>Verve</v>
+        <v>BEMAC</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="str">
-        <v>100.00</v>
+        <v>30.00</v>
       </c>
       <c r="D3" t="str">
-        <v>1.00</v>
+        <v>6.00</v>
       </c>
       <c r="E3" s="1">
-        <v>45547</v>
+        <v>45552</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G3" t="str">
-        <v>Verve</v>
+        <v>BEMAC</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="str">
-        <v>1000.00</v>
+        <v>5.00</v>
       </c>
       <c r="D4" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="str">
         <v>1.00</v>
       </c>
-      <c r="E4" s="1">
-        <v>45547</v>
-      </c>
-      <c r="F4">
+      <c r="D5" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="D6" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="H6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="D7" t="str">
+        <v>6.00</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="H7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1200.00</v>
+      </c>
+      <c r="D8" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9" t="str">
+        <v>18.00</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="H9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="D10" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="H10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11" t="str">
+        <v>20.00</v>
+      </c>
+      <c r="D11" t="str">
+        <v>6.00</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12" t="str">
+        <v>60.00</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="H12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="str">
+        <v>20.00</v>
+      </c>
+      <c r="D13" t="str">
+        <v>20.00</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="str">
+        <v>130.00</v>
+      </c>
+      <c r="D14" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="D15" t="str">
+        <v>4.00</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="str">
+        <v>55.00</v>
+      </c>
+      <c r="D16" t="str">
+        <v>8.00</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D17" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18" t="str">
+        <v>58.00</v>
+      </c>
+      <c r="D18" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="C19" t="str">
+        <v>59.00</v>
+      </c>
+      <c r="D19" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="C20" t="str">
+        <v>54.00</v>
+      </c>
+      <c r="D20" t="str">
+        <v>7.00</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="C21" t="str">
+        <v>22.00</v>
+      </c>
+      <c r="D21" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22" t="str">
+        <v>19.00</v>
+      </c>
+      <c r="D22" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H22">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23" t="str">
+        <v>73.00</v>
+      </c>
+      <c r="D23" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24">
         <v>5</v>
       </c>
-      <c r="G4" t="str">
-        <v>Verve</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
+      <c r="C24" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="D24" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="str">
+        <v>90.00</v>
+      </c>
+      <c r="D25" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>27</v>
+      </c>
+      <c r="C26" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D26" t="str">
+        <v>90.00</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="H26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="D27" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+      <c r="G27" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="str">
+        <v>45.00</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="H28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="str">
+        <v>45.00</v>
+      </c>
+      <c r="D29" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="H29">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="str">
+        <v>45.00</v>
+      </c>
+      <c r="D30" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="H30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" t="str">
+        <v>45.00</v>
+      </c>
+      <c r="D31" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45552</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="H31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="D32" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45553</v>
+      </c>
+      <c r="F32">
+        <v>38</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Emmas shop</v>
+      </c>
+      <c r="H32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="str">
+        <v>15.00</v>
+      </c>
+      <c r="D33" t="str">
+        <v>7.00</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45554</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="str">
+        <v>32.00</v>
+      </c>
+      <c r="D34" t="str">
+        <v>7.00</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45554</v>
+      </c>
+      <c r="F34">
+        <v>12</v>
+      </c>
+      <c r="G34" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="D35" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45554</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>41</v>
+      </c>
+      <c r="C36" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="D36" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45556</v>
+      </c>
+      <c r="F36">
+        <v>40</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Sanaths shop</v>
+      </c>
+      <c r="H36">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="C37" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D37" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45558</v>
+      </c>
+      <c r="F37">
+        <v>39</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Shopwase</v>
+      </c>
+      <c r="H37">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H37"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1454,7 +6355,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1481,87 +6382,1684 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E2" t="str">
-        <v>1000.0000</v>
+        <v>1.0000</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E3" t="str">
-        <v>0.0010</v>
+        <v>1.0000</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E4" t="str">
-        <v>10.0000</v>
+        <v>27.0000</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0.0370</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6" t="str">
+        <v>12.0000</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0.0833</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8" t="str">
+        <v>1.0000</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1.0000</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10" t="str">
+        <v>5.0000</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11" t="str">
+        <v>4.0000</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0.2500</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13" t="str">
+        <v>6.0000</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0.1667</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="E15" t="str">
+        <v>10.0000</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0.1000</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>28</v>
+      </c>
+      <c r="E17" t="str">
+        <v>30.0000</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>27</v>
+      </c>
+      <c r="E18" t="str">
+        <v>0.0333</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19" t="str">
+        <v>50.0000</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>29</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0.0200</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="E21" t="str">
+        <v>3.0000</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>31</v>
+      </c>
+      <c r="E22" t="str">
+        <v>0.3333</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>31</v>
+      </c>
+      <c r="E23" t="str">
+        <v>30.0000</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>35</v>
+      </c>
+      <c r="E24" t="str">
+        <v>30.0000</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>34</v>
+      </c>
+      <c r="E25" t="str">
+        <v>0.0333</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>37</v>
+      </c>
+      <c r="E26" t="str">
+        <v>10.0000</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>36</v>
+      </c>
+      <c r="E27" t="str">
+        <v>0.1000</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>39</v>
+      </c>
+      <c r="E28" t="str">
+        <v>10.0000</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>39</v>
+      </c>
+      <c r="D29">
+        <v>38</v>
+      </c>
+      <c r="E29" t="str">
+        <v>0.1000</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>41</v>
+      </c>
+      <c r="E30" t="str">
+        <v>250.0000</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31" t="str">
+        <v>0.0040</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>42</v>
+      </c>
+      <c r="D32">
+        <v>41</v>
+      </c>
+      <c r="E32" t="str">
+        <v>5.0000</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>43</v>
+      </c>
+      <c r="D33">
+        <v>35</v>
+      </c>
+      <c r="E33" t="str">
+        <v>10.0000</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <v>45</v>
+      </c>
+      <c r="E34" t="str">
+        <v>12.0000</v>
+      </c>
+      <c r="F34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <v>44</v>
+      </c>
+      <c r="E35" t="str">
+        <v>0.0833</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>46</v>
+      </c>
+      <c r="D36">
+        <v>47</v>
+      </c>
+      <c r="E36" t="str">
+        <v>6.0000</v>
+      </c>
+      <c r="F36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>47</v>
+      </c>
+      <c r="D37">
+        <v>46</v>
+      </c>
+      <c r="E37" t="str">
+        <v>0.1667</v>
+      </c>
+      <c r="F37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>48</v>
+      </c>
+      <c r="D38">
+        <v>49</v>
+      </c>
+      <c r="E38" t="str">
+        <v>1.0000</v>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>49</v>
+      </c>
+      <c r="D39">
+        <v>48</v>
+      </c>
+      <c r="E39" t="str">
+        <v>1.0000</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <v>51</v>
+      </c>
+      <c r="E40" t="str">
+        <v>12.0000</v>
+      </c>
+      <c r="F40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>51</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41" t="str">
+        <v>0.0833</v>
+      </c>
+      <c r="F41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <v>53</v>
+      </c>
+      <c r="E42" t="str">
+        <v>6.0000</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>52</v>
+      </c>
+      <c r="E43" t="str">
+        <v>0.1667</v>
+      </c>
+      <c r="F43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>55</v>
+      </c>
+      <c r="E44" t="str">
+        <v>50.0000</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <v>55</v>
+      </c>
+      <c r="D45">
+        <v>54</v>
+      </c>
+      <c r="E45" t="str">
+        <v>0.0200</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>27</v>
+      </c>
+      <c r="C46">
+        <v>56</v>
+      </c>
+      <c r="E46" t="str">
+        <v>50.0000</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>28</v>
+      </c>
+      <c r="C47">
+        <v>57</v>
+      </c>
+      <c r="D47">
+        <v>58</v>
+      </c>
+      <c r="E47" t="str">
+        <v>10.0000</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>58</v>
+      </c>
+      <c r="B48">
+        <v>28</v>
+      </c>
+      <c r="C48">
+        <v>58</v>
+      </c>
+      <c r="D48">
+        <v>57</v>
+      </c>
+      <c r="E48" t="str">
+        <v>0.1000</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>59</v>
+      </c>
+      <c r="B49">
+        <v>29</v>
+      </c>
+      <c r="C49">
+        <v>59</v>
+      </c>
+      <c r="D49">
+        <v>60</v>
+      </c>
+      <c r="E49" t="str">
+        <v>1.0000</v>
+      </c>
+      <c r="F49">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>61</v>
+      </c>
+      <c r="B50">
+        <v>29</v>
+      </c>
+      <c r="C50">
+        <v>62</v>
+      </c>
+      <c r="D50">
+        <v>59</v>
+      </c>
+      <c r="E50" t="str">
+        <v>5.0000</v>
+      </c>
+      <c r="F50">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>64</v>
+      </c>
+      <c r="B51">
+        <v>31</v>
+      </c>
+      <c r="C51">
+        <v>65</v>
+      </c>
+      <c r="D51">
+        <v>66</v>
+      </c>
+      <c r="E51" t="str">
+        <v>12.0000</v>
+      </c>
+      <c r="F51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <v>31</v>
+      </c>
+      <c r="C52">
+        <v>66</v>
+      </c>
+      <c r="D52">
+        <v>65</v>
+      </c>
+      <c r="E52" t="str">
+        <v>0.0833</v>
+      </c>
+      <c r="F52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>66</v>
+      </c>
+      <c r="B53">
+        <v>32</v>
+      </c>
+      <c r="C53">
+        <v>67</v>
+      </c>
+      <c r="D53">
+        <v>68</v>
+      </c>
+      <c r="E53" t="str">
+        <v>20.0000</v>
+      </c>
+      <c r="F53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>67</v>
+      </c>
+      <c r="B54">
+        <v>32</v>
+      </c>
+      <c r="C54">
+        <v>68</v>
+      </c>
+      <c r="D54">
+        <v>67</v>
+      </c>
+      <c r="E54" t="str">
+        <v>0.0500</v>
+      </c>
+      <c r="F54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>68</v>
+      </c>
+      <c r="B55">
+        <v>33</v>
+      </c>
+      <c r="C55">
+        <v>70</v>
+      </c>
+      <c r="D55">
+        <v>72</v>
+      </c>
+      <c r="E55" t="str">
+        <v>10.0000</v>
+      </c>
+      <c r="F55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>69</v>
+      </c>
+      <c r="B56">
+        <v>33</v>
+      </c>
+      <c r="C56">
+        <v>69</v>
+      </c>
+      <c r="D56">
+        <v>71</v>
+      </c>
+      <c r="E56" t="str">
+        <v>10.0000</v>
+      </c>
+      <c r="F56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>70</v>
+      </c>
+      <c r="B57">
+        <v>33</v>
+      </c>
+      <c r="C57">
+        <v>71</v>
+      </c>
+      <c r="D57">
+        <v>69</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0.1000</v>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>71</v>
+      </c>
+      <c r="B58">
+        <v>33</v>
+      </c>
+      <c r="C58">
+        <v>72</v>
+      </c>
+      <c r="D58">
+        <v>70</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0.1000</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>72</v>
+      </c>
+      <c r="B59">
+        <v>36</v>
+      </c>
+      <c r="C59">
+        <v>73</v>
+      </c>
+      <c r="D59">
+        <v>74</v>
+      </c>
+      <c r="E59" t="str">
+        <v>12.0000</v>
+      </c>
+      <c r="F59">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>73</v>
+      </c>
+      <c r="B60">
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <v>74</v>
+      </c>
+      <c r="D60">
+        <v>73</v>
+      </c>
+      <c r="E60" t="str">
+        <v>0.0833</v>
+      </c>
+      <c r="F60">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>74</v>
+      </c>
+      <c r="B61">
+        <v>37</v>
+      </c>
+      <c r="C61">
+        <v>75</v>
+      </c>
+      <c r="D61">
+        <v>76</v>
+      </c>
+      <c r="E61" t="str">
+        <v>24.0000</v>
+      </c>
+      <c r="F61">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>75</v>
+      </c>
+      <c r="B62">
+        <v>37</v>
+      </c>
+      <c r="C62">
+        <v>76</v>
+      </c>
+      <c r="D62">
+        <v>75</v>
+      </c>
+      <c r="E62" t="str">
+        <v>0.0417</v>
+      </c>
+      <c r="F62">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>76</v>
+      </c>
+      <c r="B63">
+        <v>38</v>
+      </c>
+      <c r="C63">
+        <v>77</v>
+      </c>
+      <c r="D63">
+        <v>78</v>
+      </c>
+      <c r="E63" t="str">
+        <v>12.0000</v>
+      </c>
+      <c r="F63">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>77</v>
+      </c>
+      <c r="B64">
+        <v>38</v>
+      </c>
+      <c r="C64">
+        <v>78</v>
+      </c>
+      <c r="D64">
+        <v>77</v>
+      </c>
+      <c r="E64" t="str">
+        <v>0.0833</v>
+      </c>
+      <c r="F64">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>78</v>
+      </c>
+      <c r="B65">
+        <v>39</v>
+      </c>
+      <c r="C65">
+        <v>79</v>
+      </c>
+      <c r="D65">
+        <v>80</v>
+      </c>
+      <c r="E65" t="str">
+        <v>24.0000</v>
+      </c>
+      <c r="F65">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>79</v>
+      </c>
+      <c r="B66">
+        <v>39</v>
+      </c>
+      <c r="C66">
+        <v>80</v>
+      </c>
+      <c r="D66">
+        <v>79</v>
+      </c>
+      <c r="E66" t="str">
+        <v>0.0417</v>
+      </c>
+      <c r="F66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>80</v>
+      </c>
+      <c r="B67">
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>81</v>
+      </c>
+      <c r="D67">
+        <v>82</v>
+      </c>
+      <c r="E67" t="str">
+        <v>30.0000</v>
+      </c>
+      <c r="F67">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>81</v>
+      </c>
+      <c r="B68">
+        <v>40</v>
+      </c>
+      <c r="C68">
+        <v>82</v>
+      </c>
+      <c r="D68">
+        <v>81</v>
+      </c>
+      <c r="E68" t="str">
+        <v>0.0333</v>
+      </c>
+      <c r="F68">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>82</v>
+      </c>
+      <c r="B69">
+        <v>41</v>
+      </c>
+      <c r="C69">
+        <v>83</v>
+      </c>
+      <c r="D69">
+        <v>84</v>
+      </c>
+      <c r="E69" t="str">
+        <v>1000.0000</v>
+      </c>
+      <c r="F69">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>83</v>
+      </c>
+      <c r="B70">
+        <v>41</v>
+      </c>
+      <c r="C70">
+        <v>84</v>
+      </c>
+      <c r="D70">
+        <v>83</v>
+      </c>
+      <c r="E70" t="str">
+        <v>0.0010</v>
+      </c>
+      <c r="F70">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>84</v>
+      </c>
+      <c r="B71">
+        <v>41</v>
+      </c>
+      <c r="C71">
+        <v>85</v>
+      </c>
+      <c r="D71">
+        <v>83</v>
+      </c>
+      <c r="E71" t="str">
+        <v>5.0000</v>
+      </c>
+      <c r="F71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>85</v>
+      </c>
+      <c r="B72">
+        <v>43</v>
+      </c>
+      <c r="C72">
+        <v>86</v>
+      </c>
+      <c r="D72">
+        <v>87</v>
+      </c>
+      <c r="E72" t="str">
+        <v>18.0000</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>86</v>
+      </c>
+      <c r="B73">
+        <v>43</v>
+      </c>
+      <c r="C73">
+        <v>87</v>
+      </c>
+      <c r="D73">
+        <v>86</v>
+      </c>
+      <c r="E73" t="str">
+        <v>0.0556</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>87</v>
+      </c>
+      <c r="B74">
+        <v>43</v>
+      </c>
+      <c r="C74">
+        <v>88</v>
+      </c>
+      <c r="D74">
+        <v>86</v>
+      </c>
+      <c r="E74" t="str">
+        <v>180.0000</v>
+      </c>
+      <c r="F74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>88</v>
+      </c>
+      <c r="B75">
+        <v>45</v>
+      </c>
+      <c r="C75">
+        <v>89</v>
+      </c>
+      <c r="D75">
+        <v>90</v>
+      </c>
+      <c r="E75" t="str">
+        <v>6.0000</v>
+      </c>
+      <c r="F75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>89</v>
+      </c>
+      <c r="B76">
+        <v>45</v>
+      </c>
+      <c r="C76">
+        <v>90</v>
+      </c>
+      <c r="D76">
+        <v>89</v>
+      </c>
+      <c r="E76" t="str">
+        <v>0.1667</v>
+      </c>
+      <c r="F76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>97</v>
+      </c>
+      <c r="B77">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="C77">
+        <v>98</v>
+      </c>
+      <c r="D77">
+        <v>99</v>
+      </c>
+      <c r="E77" t="str">
+        <v>1000.0000</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>98</v>
+      </c>
+      <c r="B78">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="str">
+      <c r="C78">
+        <v>99</v>
+      </c>
+      <c r="D78">
+        <v>98</v>
+      </c>
+      <c r="E78" t="str">
+        <v>0.0010</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>99</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <v>98</v>
+      </c>
+      <c r="E79" t="str">
+        <v>10.0000</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>102</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>103</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+      <c r="E80" t="str">
         <v>20.0000</v>
       </c>
-      <c r="F5">
+      <c r="F80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>103</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>104</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81" t="str">
+        <v>20.0000</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>104</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>105</v>
+      </c>
+      <c r="D82">
+        <v>99</v>
+      </c>
+      <c r="E82" t="str">
+        <v>1234.0000</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>105</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>106</v>
+      </c>
+      <c r="D83">
+        <v>99</v>
+      </c>
+      <c r="E83" t="str">
+        <v>1234.0000</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>106</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>107</v>
+      </c>
+      <c r="D84">
+        <v>100</v>
+      </c>
+      <c r="E84" t="str">
+        <v>12.0000</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>107</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>108</v>
+      </c>
+      <c r="D85">
+        <v>104</v>
+      </c>
+      <c r="E85" t="str">
+        <v>90.0000</v>
+      </c>
+      <c r="F85">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F85"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/src/database_export.xlsx
+++ b/backend/src/database_export.xlsx
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,93 +435,93 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>151.00</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Verve</v>
+      </c>
+      <c r="F2">
         <v>2</v>
-      </c>
-      <c r="B2" t="str">
-        <v>120.00</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Gamer Shop</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>32.00</v>
+        <v>120.00</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>BEMAC</v>
+        <v>Gamer Shop</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>139.00</v>
+      </c>
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="B4" t="str">
-        <v>2.50</v>
-      </c>
-      <c r="C4">
-        <v>16</v>
-      </c>
       <c r="D4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E4" t="str">
-        <v>BEMAC</v>
+        <v>Verve</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>18.00</v>
+        <v>111.00</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" t="str">
-        <v xml:space="preserve">NK </v>
+        <v>Verve</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="str">
-        <v>25.00</v>
+        <v>32.00</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -530,38 +530,38 @@
         <v>BEMAC</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="str">
-        <v>19.80</v>
+        <v>2.50</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" t="str">
-        <v xml:space="preserve">NK </v>
+        <v>BEMAC</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" t="str">
-        <v>4.67</v>
+        <v>18.00</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -570,18 +570,18 @@
         <v xml:space="preserve">NK </v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="str">
-        <v>13.00</v>
+        <v>25.00</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -590,18 +590,18 @@
         <v>BEMAC</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" t="str">
-        <v>48.00</v>
+        <v>19.80</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -610,18 +610,18 @@
         <v xml:space="preserve">NK </v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" t="str">
-        <v>0.00</v>
+        <v>4.67</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -630,18 +630,18 @@
         <v xml:space="preserve">NK </v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" t="str">
-        <v>0.67</v>
+        <v>13.00</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -650,58 +650,58 @@
         <v>BEMAC</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="str">
-        <v>5.00</v>
+        <v>48.00</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E13" t="str">
-        <v>BEMAC</v>
+        <v xml:space="preserve">NK </v>
       </c>
       <c r="F13">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" t="str">
-        <v>12.00</v>
+        <v>0.00</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E14" t="str">
-        <v>BEMAC</v>
+        <v xml:space="preserve">NK </v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" t="str">
-        <v>0.80</v>
+        <v>0.67</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>12</v>
@@ -710,18 +710,18 @@
         <v>BEMAC</v>
       </c>
       <c r="F15">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" t="str">
-        <v>2.83</v>
+        <v>5.00</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>12</v>
@@ -730,18 +730,18 @@
         <v>BEMAC</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" t="str">
-        <v>1.58</v>
+        <v>12.00</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -750,18 +750,18 @@
         <v>BEMAC</v>
       </c>
       <c r="F17">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" t="str">
-        <v>10.00</v>
+        <v>0.80</v>
       </c>
       <c r="C18">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>12</v>
@@ -770,18 +770,18 @@
         <v>BEMAC</v>
       </c>
       <c r="F18">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" t="str">
-        <v>2.00</v>
+        <v>2.83</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -790,18 +790,18 @@
         <v>BEMAC</v>
       </c>
       <c r="F19">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" t="str">
-        <v>4.00</v>
+        <v>1.58</v>
       </c>
       <c r="C20">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -810,18 +810,18 @@
         <v>BEMAC</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" t="str">
-        <v>2.17</v>
+        <v>10.00</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>12</v>
@@ -830,198 +830,198 @@
         <v>BEMAC</v>
       </c>
       <c r="F21">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" t="str">
-        <v>38.20</v>
+        <v>2.00</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E22" t="str">
-        <v xml:space="preserve">NK </v>
+        <v>BEMAC</v>
       </c>
       <c r="F22">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" t="str">
-        <v>0.10</v>
+        <v>4.00</v>
       </c>
       <c r="C23">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E23" t="str">
-        <v xml:space="preserve">NK </v>
+        <v>BEMAC</v>
       </c>
       <c r="F23">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" t="str">
-        <v>1.00</v>
+        <v>2.17</v>
       </c>
       <c r="C24">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E24" t="str">
-        <v>Emmas shop</v>
+        <v>BEMAC</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" t="str">
-        <v>3.00</v>
+        <v>38.20</v>
       </c>
       <c r="C25">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E25" t="str">
-        <v>BEMAC</v>
+        <v xml:space="preserve">NK </v>
       </c>
       <c r="F25">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" t="str">
-        <v>23.00</v>
+        <v>0.10</v>
       </c>
       <c r="C26">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E26" t="str">
-        <v>BEMAC</v>
+        <v xml:space="preserve">NK </v>
       </c>
       <c r="F26">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" t="str">
-        <v>7.00</v>
+        <v>1.00</v>
       </c>
       <c r="C27">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E27" t="str">
-        <v>BEMAC</v>
+        <v>Emmas shop</v>
       </c>
       <c r="F27">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="C28">
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F28">
         <v>31</v>
-      </c>
-      <c r="B28" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="C28">
-        <v>80</v>
-      </c>
-      <c r="D28">
-        <v>39</v>
-      </c>
-      <c r="E28" t="str">
-        <v>Shopwase</v>
-      </c>
-      <c r="F28">
-        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="str">
+        <v>23.00</v>
+      </c>
+      <c r="C29">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F29">
         <v>32</v>
-      </c>
-      <c r="B29" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="C29">
-        <v>78</v>
-      </c>
-      <c r="D29">
-        <v>39</v>
-      </c>
-      <c r="E29" t="str">
-        <v>Shopwase</v>
-      </c>
-      <c r="F29">
-        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="str">
+        <v>7.00</v>
+      </c>
+      <c r="C30">
+        <v>71</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F30">
         <v>33</v>
-      </c>
-      <c r="B30" t="str">
-        <v>1.00</v>
-      </c>
-      <c r="C30">
-        <v>74</v>
-      </c>
-      <c r="D30">
-        <v>39</v>
-      </c>
-      <c r="E30" t="str">
-        <v>Shopwase</v>
-      </c>
-      <c r="F30">
-        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" t="str">
-        <v>7.00</v>
+        <v>0.00</v>
       </c>
       <c r="C31">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>39</v>
@@ -1030,18 +1030,18 @@
         <v>Shopwase</v>
       </c>
       <c r="F31">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" t="str">
-        <v>5.90</v>
+        <v>0.00</v>
       </c>
       <c r="C32">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D32">
         <v>39</v>
@@ -1050,79 +1050,119 @@
         <v>Shopwase</v>
       </c>
       <c r="F32">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="C33">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <v>39</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Shopwase</v>
+      </c>
+      <c r="F33">
         <v>36</v>
-      </c>
-      <c r="B33" t="str">
-        <v>100.00</v>
-      </c>
-      <c r="C33">
-        <v>83</v>
-      </c>
-      <c r="D33">
-        <v>40</v>
-      </c>
-      <c r="E33" t="str">
-        <v>Sanaths shop</v>
-      </c>
-      <c r="F33">
-        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="str">
+        <v>7.00</v>
+      </c>
+      <c r="C34">
+        <v>76</v>
+      </c>
+      <c r="D34">
+        <v>39</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Shopwase</v>
+      </c>
+      <c r="F34">
         <v>37</v>
-      </c>
-      <c r="B34" t="str">
-        <v>10.00</v>
-      </c>
-      <c r="C34">
-        <v>86</v>
-      </c>
-      <c r="D34">
-        <v>12</v>
-      </c>
-      <c r="E34" t="str">
-        <v>BEMAC</v>
-      </c>
-      <c r="F34">
-        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="str">
+        <v>5.90</v>
+      </c>
+      <c r="C35">
+        <v>81</v>
+      </c>
+      <c r="D35">
         <v>39</v>
       </c>
-      <c r="B35" t="str">
-        <v>112.00</v>
-      </c>
-      <c r="C35">
-        <v>98</v>
-      </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
       <c r="E35" t="str">
-        <v>Verve</v>
+        <v>Shopwase</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C36">
+        <v>83</v>
+      </c>
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Sanaths shop</v>
+      </c>
+      <c r="F36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="C37">
+        <v>86</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="F37">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F37"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1152,10 +1192,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="str">
         <v>kg</v>
@@ -1164,283 +1204,283 @@
         <v>buying</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="str">
-        <v>One box of 6</v>
+        <v>grams</v>
       </c>
       <c r="D3" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="str">
-        <v>A bar of 125g</v>
+        <v>box</v>
       </c>
       <c r="D4" t="str">
         <v>selling</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="str">
-        <v>Ponch</v>
+        <v>crate</v>
       </c>
       <c r="D5" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="str">
-        <v>Heap of 5</v>
+        <v>kg</v>
       </c>
       <c r="D6" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="str">
-        <v>A box of 12 packs</v>
+        <v>Kg</v>
       </c>
       <c r="D7" t="str">
         <v>buying</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="str">
-        <v>One Pack of 50 teabags</v>
+        <v>grams</v>
       </c>
       <c r="D8" t="str">
         <v>selling</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="str">
-        <v xml:space="preserve">1 by 6 pack </v>
+        <v>crate</v>
       </c>
       <c r="D9" t="str">
         <v>buying</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="str">
-        <v>350ml</v>
+        <v>box</v>
       </c>
       <c r="D10" t="str">
         <v>selling</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="str">
-        <v>One medium onion</v>
+        <v>group</v>
       </c>
       <c r="D11" t="str">
         <v>selling</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" t="str">
-        <v>A box of 4 containers</v>
+        <v>One box of 6</v>
       </c>
       <c r="D12" t="str">
         <v>buying</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" t="str">
-        <v>One 2.5l container</v>
+        <v>A bar of 125g</v>
       </c>
       <c r="D13" t="str">
         <v>selling</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" t="str">
-        <v>One box of 6 bottles</v>
+        <v>Ponch</v>
       </c>
       <c r="D14" t="str">
         <v>buying</v>
       </c>
       <c r="E14">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1451,19 +1491,19 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" t="str">
-        <v>One 2l bottle</v>
+        <v>Heap of 5</v>
       </c>
       <c r="D15" t="str">
         <v>selling</v>
       </c>
       <c r="E15">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1474,68 +1514,68 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" t="str">
-        <v>One by 10</v>
+        <v>A box of 12 packs</v>
       </c>
       <c r="D16" t="str">
         <v>buying</v>
       </c>
       <c r="E16">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" t="str">
-        <v xml:space="preserve">One pack </v>
+        <v>One Pack of 50 teabags</v>
       </c>
       <c r="D17" t="str">
         <v>selling</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" t="str">
-        <v>Tray of eggs</v>
+        <v xml:space="preserve">1 by 6 pack </v>
       </c>
       <c r="D18" t="str">
         <v>buying</v>
       </c>
       <c r="E18">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -1543,19 +1583,19 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" t="str">
-        <v>One egg</v>
+        <v>350ml</v>
       </c>
       <c r="D19" t="str">
         <v>selling</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1566,68 +1606,68 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C20" t="str">
-        <v>Pack of 50</v>
+        <v>One medium onion</v>
       </c>
       <c r="D20" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C21" t="str">
-        <v>One pack</v>
+        <v>A box of 4 containers</v>
       </c>
       <c r="D21" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E21">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C22" t="str">
-        <v>Tray</v>
+        <v>One 2.5l container</v>
       </c>
       <c r="D22" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E22">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>12</v>
@@ -1635,19 +1675,19 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C23" t="str">
-        <v>Pack of 10 eggs</v>
+        <v>One box of 6 bottles</v>
       </c>
       <c r="D23" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E23">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1658,19 +1698,19 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C24" t="str">
-        <v>Per Egg</v>
+        <v>One 2l bottle</v>
       </c>
       <c r="D24" t="str">
         <v>selling</v>
       </c>
       <c r="E24">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1681,160 +1721,160 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C25" t="str">
-        <v>Box</v>
+        <v>One by 10</v>
       </c>
       <c r="D25" t="str">
         <v>buying</v>
       </c>
       <c r="E25">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C26" t="str">
-        <v>Heap of 10</v>
+        <v xml:space="preserve">One pack </v>
       </c>
       <c r="D26" t="str">
         <v>selling</v>
       </c>
       <c r="E26">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C27" t="str">
-        <v>Case of 10 2kg packs</v>
+        <v>Tray of eggs</v>
       </c>
       <c r="D27" t="str">
         <v>buying</v>
       </c>
       <c r="E27">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C28" t="str">
-        <v>One 2kg pack</v>
+        <v>One egg</v>
       </c>
       <c r="D28" t="str">
         <v>selling</v>
       </c>
       <c r="E28">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C29" t="str">
-        <v>Case of 10 2kg packs</v>
+        <v>Pack of 50</v>
       </c>
       <c r="D29" t="str">
         <v>buying</v>
       </c>
       <c r="E29">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C30" t="str">
-        <v>One 2kg pack</v>
+        <v>One pack</v>
       </c>
       <c r="D30" t="str">
         <v>selling</v>
       </c>
       <c r="E30">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C31" t="str">
-        <v>Box</v>
+        <v>Tray</v>
       </c>
       <c r="D31" t="str">
         <v>buying</v>
       </c>
       <c r="E31">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>12</v>
@@ -1842,22 +1882,22 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32" t="str">
-        <v>A heap of 5</v>
+        <v>Pack of 10 eggs</v>
       </c>
       <c r="D32" t="str">
         <v>selling</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>12</v>
@@ -1865,19 +1905,19 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C33" t="str">
-        <v>Each</v>
+        <v>Per Egg</v>
       </c>
       <c r="D33" t="str">
         <v>selling</v>
       </c>
       <c r="E33">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1888,16 +1928,16 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>18</v>
       </c>
       <c r="C34" t="str">
-        <v>Each</v>
+        <v>Box</v>
       </c>
       <c r="D34" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E34">
         <v>35</v>
@@ -1911,19 +1951,19 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C35" t="str">
-        <v>A case of 12 2kg boxes</v>
+        <v>Heap of 10</v>
       </c>
       <c r="D35" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E35">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1934,19 +1974,19 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C36" t="str">
-        <v>One 2kg Box</v>
+        <v>Case of 10 2kg packs</v>
       </c>
       <c r="D36" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E36">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1957,19 +1997,19 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C37" t="str">
-        <v>A Box of 6 2kg Bags</v>
+        <v>One 2kg pack</v>
       </c>
       <c r="D37" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E37">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1980,19 +2020,19 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C38" t="str">
-        <v>One 2kg Bag</v>
+        <v>Case of 10 2kg packs</v>
       </c>
       <c r="D38" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E38">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2003,22 +2043,22 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C39" t="str">
-        <v>Per Loaf</v>
+        <v>One 2kg pack</v>
       </c>
       <c r="D39" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>12</v>
@@ -2026,19 +2066,19 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C40" t="str">
-        <v>Per Loaf</v>
+        <v>Box</v>
       </c>
       <c r="D40" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E40">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2049,22 +2089,22 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C41" t="str">
-        <v>Crate</v>
+        <v>A heap of 5</v>
       </c>
       <c r="D41" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -2072,19 +2112,19 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C42" t="str">
-        <v>Per Loaf</v>
+        <v>Each</v>
       </c>
       <c r="D42" t="str">
         <v>selling</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2095,22 +2135,22 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C43" t="str">
-        <v>Box of 6 boxes</v>
+        <v>Each</v>
       </c>
       <c r="D43" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E43">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>12</v>
@@ -2118,19 +2158,19 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C44" t="str">
-        <v>One 1kg box</v>
+        <v>A case of 12 2kg boxes</v>
       </c>
       <c r="D44" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E44">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2141,197 +2181,203 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C45" t="str">
-        <v>Box of 40</v>
+        <v>One 2kg Box</v>
       </c>
       <c r="D45" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E45">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C46" t="str">
-        <v>1</v>
+        <v>A Box of 6 2kg Bags</v>
       </c>
       <c r="D46" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E46">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="C47" t="str">
+        <v>One 2kg Bag</v>
       </c>
       <c r="D47" t="str">
         <v>selling</v>
       </c>
+      <c r="E47">
+        <v>46</v>
+      </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C48" t="str">
-        <v>Box of 10</v>
+        <v>Per Loaf</v>
       </c>
       <c r="D48" t="str">
         <v>buying</v>
       </c>
       <c r="E48">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C49" t="str">
-        <v>2litre Bottle</v>
+        <v>Per Loaf</v>
       </c>
       <c r="D49" t="str">
         <v>selling</v>
       </c>
       <c r="E49">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C50" t="str">
-        <v>Boxes</v>
+        <v>Crate</v>
       </c>
       <c r="D50" t="str">
         <v>buying</v>
       </c>
       <c r="E50">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C51" t="str">
-        <v>Each</v>
+        <v>Per Loaf</v>
       </c>
       <c r="D51" t="str">
         <v>selling</v>
       </c>
       <c r="E51">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C52" t="str">
-        <v>crate</v>
+        <v>Box of 6 boxes</v>
       </c>
       <c r="D52" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E52">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C53" t="str">
-        <v>Case 12</v>
+        <v>One 1kg box</v>
       </c>
       <c r="D53" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E53">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2342,516 +2388,510 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C54" t="str">
+        <v>Box of 40</v>
+      </c>
+      <c r="D54" t="str">
+        <v>buying</v>
+      </c>
+      <c r="E54">
+        <v>55</v>
+      </c>
+      <c r="F54">
         <v>1</v>
       </c>
-      <c r="D54" t="str">
-        <v>selling</v>
-      </c>
-      <c r="E54">
-        <v>65</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
       <c r="G54">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C55" t="str">
-        <v>Case of 20</v>
+        <v>1</v>
       </c>
       <c r="D55" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>32</v>
-      </c>
-      <c r="C56" t="str">
-        <v>Per one kg bag</v>
+        <v>27</v>
       </c>
       <c r="D56" t="str">
         <v>selling</v>
       </c>
-      <c r="E56">
-        <v>67</v>
-      </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C57" t="str">
-        <v xml:space="preserve">Case of 10 </v>
+        <v>Box of 10</v>
       </c>
       <c r="D57" t="str">
         <v>buying</v>
       </c>
       <c r="E57">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C58" t="str">
-        <v xml:space="preserve">Case of 10 </v>
+        <v>2litre Bottle</v>
       </c>
       <c r="D58" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E58">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C59" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>Boxes</v>
       </c>
       <c r="D59" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E59">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C60" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>Each</v>
       </c>
       <c r="D60" t="str">
         <v>selling</v>
       </c>
       <c r="E60">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C61" t="str">
-        <v xml:space="preserve">Case of 12 </v>
+        <v>crate</v>
       </c>
       <c r="D61" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E61">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B62">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C62" t="str">
-        <v>Each</v>
+        <v>abcd</v>
       </c>
       <c r="D62" t="str">
         <v>selling</v>
       </c>
       <c r="E62">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B63">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C63" t="str">
-        <v>Case of 24</v>
+        <v>Case 12</v>
       </c>
       <c r="D63" t="str">
         <v>buying</v>
       </c>
       <c r="E63">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B64">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C64" t="str">
-        <v>Each</v>
+        <v>1</v>
       </c>
       <c r="D64" t="str">
         <v>selling</v>
       </c>
       <c r="E64">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B65">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C65" t="str">
-        <v>Case of 12</v>
+        <v>Case of 20</v>
       </c>
       <c r="D65" t="str">
         <v>buying</v>
       </c>
       <c r="E65">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B66">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C66" t="str">
-        <v>Each</v>
+        <v>Per one kg bag</v>
       </c>
       <c r="D66" t="str">
         <v>selling</v>
       </c>
       <c r="E66">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B67">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C67" t="str">
-        <v>Crate of 24</v>
+        <v xml:space="preserve">Case of 10 </v>
       </c>
       <c r="D67" t="str">
         <v>buying</v>
       </c>
       <c r="E67">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
       <c r="G67">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B68">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C68" t="str">
-        <v>Each</v>
+        <v xml:space="preserve">Case of 10 </v>
       </c>
       <c r="D68" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E68">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B69">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C69" t="str">
-        <v>Trays</v>
+        <v xml:space="preserve">1 </v>
       </c>
       <c r="D69" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E69">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B70">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C70" t="str">
-        <v xml:space="preserve">Each </v>
+        <v xml:space="preserve">1 </v>
       </c>
       <c r="D70" t="str">
         <v>selling</v>
       </c>
       <c r="E70">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B71">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C71" t="str">
-        <v>Kg</v>
+        <v xml:space="preserve">Case of 12 </v>
       </c>
       <c r="D71" t="str">
         <v>buying</v>
       </c>
       <c r="E71">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B72">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C72" t="str">
-        <v>Grams</v>
+        <v>Each</v>
       </c>
       <c r="D72" t="str">
         <v>selling</v>
       </c>
       <c r="E72">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B73">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C73" t="str">
-        <v>crate</v>
+        <v>Case of 24</v>
       </c>
       <c r="D73" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E73">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B74">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C74" t="str">
-        <v>Ponch</v>
+        <v>Each</v>
       </c>
       <c r="D74" t="str">
-        <v>buying</v>
+        <v>selling</v>
       </c>
       <c r="E74">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B75">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C75" t="str">
-        <v>Head of 10</v>
+        <v>Case of 12</v>
       </c>
       <c r="D75" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E75">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B76">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C76" t="str">
         <v>Each</v>
@@ -2860,271 +2900,294 @@
         <v>selling</v>
       </c>
       <c r="E76">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B77">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C77" t="str">
-        <v>1x6</v>
+        <v>Crate of 24</v>
       </c>
       <c r="D77" t="str">
         <v>buying</v>
       </c>
       <c r="E77">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B78">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C78" t="str">
-        <v>1</v>
+        <v>Each</v>
       </c>
       <c r="D78" t="str">
         <v>selling</v>
       </c>
       <c r="E78">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C79" t="str">
-        <v>kg</v>
+        <v>Trays</v>
       </c>
       <c r="D79" t="str">
         <v>buying</v>
       </c>
       <c r="E79">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C80" t="str">
-        <v>grams</v>
+        <v xml:space="preserve">Each </v>
       </c>
       <c r="D80" t="str">
         <v>selling</v>
       </c>
       <c r="E80">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C81" t="str">
-        <v>xxx</v>
+        <v>Kg</v>
       </c>
       <c r="D81" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E81">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C82" t="str">
-        <v>zzz</v>
+        <v>Grams</v>
       </c>
       <c r="D82" t="str">
         <v>selling</v>
       </c>
       <c r="E82">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C83" t="str">
-        <v>asd</v>
+        <v>crate</v>
       </c>
       <c r="D83" t="str">
         <v>selling</v>
       </c>
       <c r="E83">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C84" t="str">
-        <v>dsa</v>
+        <v>Ponch</v>
       </c>
       <c r="D84" t="str">
-        <v>selling</v>
+        <v>buying</v>
       </c>
       <c r="E84">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C85" t="str">
-        <v>dsa</v>
+        <v>Head of 10</v>
       </c>
       <c r="D85" t="str">
         <v>selling</v>
       </c>
       <c r="E85">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C86" t="str">
-        <v>sanath</v>
+        <v>Each</v>
       </c>
       <c r="D86" t="str">
         <v>selling</v>
       </c>
       <c r="E86">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C87" t="str">
-        <v>Apple</v>
+        <v>1x6</v>
       </c>
       <c r="D87" t="str">
         <v>buying</v>
       </c>
       <c r="E87">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>5</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>45</v>
+      </c>
+      <c r="C88" t="str">
+        <v>1</v>
+      </c>
+      <c r="D88" t="str">
+        <v>selling</v>
+      </c>
+      <c r="E88">
+        <v>89</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G87"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G88"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3724,7 +3787,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3774,19 +3837,19 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Plum</v>
+        <v>Apple</v>
       </c>
       <c r="C3" t="str">
         <v>Fruit</v>
       </c>
       <c r="D3" t="str">
-        <v>Red</v>
+        <v>Gala</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>Gala Apple</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3794,56 +3857,56 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>White Onions</v>
+        <v>Orange</v>
       </c>
       <c r="C4" t="str">
-        <v>Vegetables</v>
+        <v>Fruit</v>
       </c>
       <c r="D4" t="str">
-        <v>Medium</v>
+        <v>Nice</v>
       </c>
       <c r="E4" t="str">
         <v/>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>Bathing Soap</v>
+        <v>Plum</v>
       </c>
       <c r="C5" t="str">
-        <v>Dettol Soap</v>
+        <v>Fruit</v>
       </c>
       <c r="D5" t="str">
-        <v>125g</v>
+        <v>Red</v>
       </c>
       <c r="E5" t="str">
         <v/>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v xml:space="preserve">Quick Brew Tagless Teabags </v>
+        <v>White Onions</v>
       </c>
       <c r="C6" t="str">
-        <v>Beverage</v>
+        <v>Vegetables</v>
       </c>
       <c r="D6" t="str">
-        <v>Pack of 50</v>
+        <v>Medium</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -3854,16 +3917,16 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v xml:space="preserve">Mojo Drink </v>
+        <v>Bathing Soap</v>
       </c>
       <c r="C7" t="str">
-        <v>Juice</v>
+        <v>Dettol Soap</v>
       </c>
       <c r="D7" t="str">
-        <v>350mls</v>
+        <v>125g</v>
       </c>
       <c r="E7" t="str">
         <v/>
@@ -3874,16 +3937,16 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>Zamgold Cooking Oil</v>
+        <v xml:space="preserve">Quick Brew Tagless Teabags </v>
       </c>
       <c r="C8" t="str">
-        <v>Cooking Oil</v>
+        <v>Beverage</v>
       </c>
       <c r="D8" t="str">
-        <v>2.5 litres</v>
+        <v>Pack of 50</v>
       </c>
       <c r="E8" t="str">
         <v/>
@@ -3894,96 +3957,96 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>Zamgold Cooking Oil</v>
+        <v xml:space="preserve">Mojo Drink </v>
       </c>
       <c r="C9" t="str">
-        <v>Cooking Oil</v>
+        <v>Juice</v>
       </c>
       <c r="D9" t="str">
-        <v>2 litres</v>
+        <v>350mls</v>
       </c>
       <c r="E9" t="str">
         <v/>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>Soft Care Pads</v>
+        <v>Zamgold Cooking Oil</v>
       </c>
       <c r="C10" t="str">
-        <v>Sanity Towels</v>
+        <v>Cooking Oil</v>
       </c>
       <c r="D10" t="str">
-        <v xml:space="preserve">One pack </v>
+        <v>2.5 litres</v>
       </c>
       <c r="E10" t="str">
         <v/>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>Tray of Eggs</v>
+        <v>Zamgold Cooking Oil</v>
       </c>
       <c r="C11" t="str">
-        <v>Eggs</v>
+        <v>Cooking Oil</v>
       </c>
       <c r="D11" t="str">
-        <v xml:space="preserve">One tray </v>
+        <v>2 litres</v>
       </c>
       <c r="E11" t="str">
         <v/>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>Chicken Eggs</v>
+        <v>Soft Care Pads</v>
       </c>
       <c r="C12" t="str">
-        <v>Eggs</v>
+        <v>Sanity Towels</v>
       </c>
       <c r="D12" t="str">
-        <v>Tray</v>
+        <v xml:space="preserve">One pack </v>
       </c>
       <c r="E12" t="str">
         <v/>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>Nik Nax</v>
+        <v>Tray of Eggs</v>
       </c>
       <c r="C13" t="str">
-        <v>Snacks</v>
+        <v>Eggs</v>
       </c>
       <c r="D13" t="str">
-        <v>One pack</v>
+        <v xml:space="preserve">One tray </v>
       </c>
       <c r="E13" t="str">
         <v/>
@@ -3994,16 +4057,16 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="str">
-        <v>Tomato</v>
+        <v>Chicken Eggs</v>
       </c>
       <c r="C14" t="str">
-        <v>Fruits and Vegetables</v>
+        <v>Eggs</v>
       </c>
       <c r="D14" t="str">
-        <v>Medium</v>
+        <v>Tray</v>
       </c>
       <c r="E14" t="str">
         <v/>
@@ -4014,36 +4077,36 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" t="str">
-        <v>White Spoon Sugar</v>
+        <v>Nik Nax</v>
       </c>
       <c r="C15" t="str">
-        <v>Sugar</v>
+        <v>Snacks</v>
       </c>
       <c r="D15" t="str">
-        <v>2kg</v>
+        <v>One pack</v>
       </c>
       <c r="E15" t="str">
         <v/>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="str">
-        <v>Boom Washing Powder</v>
+        <v>Tomato</v>
       </c>
       <c r="C16" t="str">
-        <v>Laundry Detergent</v>
+        <v>Fruits and Vegetables</v>
       </c>
       <c r="D16" t="str">
-        <v>2kg</v>
+        <v>Medium</v>
       </c>
       <c r="E16" t="str">
         <v/>
@@ -4054,16 +4117,16 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="str">
-        <v>Tomato</v>
+        <v>White Spoon Sugar</v>
       </c>
       <c r="C17" t="str">
-        <v>Fruits and Vegetables</v>
+        <v>Sugar</v>
       </c>
       <c r="D17" t="str">
-        <v>Large</v>
+        <v>2kg</v>
       </c>
       <c r="E17" t="str">
         <v/>
@@ -4074,10 +4137,10 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" t="str">
-        <v>Aloha Washing Powder</v>
+        <v>Boom Washing Powder</v>
       </c>
       <c r="C18" t="str">
         <v>Laundry Detergent</v>
@@ -4094,16 +4157,16 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" t="str">
-        <v xml:space="preserve">Sunglight Washing Powder </v>
+        <v>Tomato</v>
       </c>
       <c r="C19" t="str">
-        <v>Laundry Detergent</v>
+        <v>Fruits and Vegetables</v>
       </c>
       <c r="D19" t="str">
-        <v>2kg</v>
+        <v>Large</v>
       </c>
       <c r="E19" t="str">
         <v/>
@@ -4114,16 +4177,16 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" t="str">
-        <v>Bomfwa Bread</v>
+        <v>Aloha Washing Powder</v>
       </c>
       <c r="C20" t="str">
-        <v>Bread</v>
+        <v>Laundry Detergent</v>
       </c>
       <c r="D20" t="str">
-        <v>Family Loaf 800g</v>
+        <v>2kg</v>
       </c>
       <c r="E20" t="str">
         <v/>
@@ -4134,16 +4197,16 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" t="str">
-        <v>Agogos Bread</v>
+        <v xml:space="preserve">Sunglight Washing Powder </v>
       </c>
       <c r="C21" t="str">
-        <v>Bread</v>
+        <v>Laundry Detergent</v>
       </c>
       <c r="D21" t="str">
-        <v>Agogos Original 700g</v>
+        <v>2kg</v>
       </c>
       <c r="E21" t="str">
         <v/>
@@ -4154,16 +4217,16 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" t="str">
-        <v>Big Tree Corn Flakes</v>
+        <v>Bomfwa Bread</v>
       </c>
       <c r="C22" t="str">
-        <v>Cereal</v>
+        <v>Bread</v>
       </c>
       <c r="D22" t="str">
-        <v>1kg</v>
+        <v>Family Loaf 800g</v>
       </c>
       <c r="E22" t="str">
         <v/>
@@ -4174,116 +4237,116 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" t="str">
-        <v>Bananas</v>
+        <v>Agogos Bread</v>
       </c>
       <c r="C23" t="str">
-        <v>Fruits</v>
+        <v>Bread</v>
       </c>
       <c r="D23" t="str">
-        <v>Each</v>
+        <v>Agogos Original 700g</v>
       </c>
       <c r="E23" t="str">
         <v/>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" t="str">
-        <v>Just Juice</v>
+        <v>Big Tree Corn Flakes</v>
       </c>
       <c r="C24" t="str">
-        <v xml:space="preserve">Juices </v>
+        <v>Cereal</v>
       </c>
       <c r="D24" t="str">
-        <v>2litre bottles</v>
+        <v>1kg</v>
       </c>
       <c r="E24" t="str">
         <v/>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" t="str">
-        <v>Organic Apples</v>
+        <v>Bananas</v>
       </c>
       <c r="C25" t="str">
         <v>Fruits</v>
       </c>
       <c r="D25" t="str">
-        <v>Granny Smith</v>
+        <v>Each</v>
       </c>
       <c r="E25" t="str">
-        <v>Fresh organic Granny Smith apples</v>
+        <v/>
       </c>
       <c r="F25">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26" t="str">
-        <v xml:space="preserve">Fanta </v>
+        <v>Just Juice</v>
       </c>
       <c r="C26" t="str">
-        <v>Drinks</v>
+        <v xml:space="preserve">Juices </v>
       </c>
       <c r="D26" t="str">
-        <v>350ml</v>
+        <v>2litre bottles</v>
       </c>
       <c r="E26" t="str">
         <v/>
       </c>
       <c r="F26">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B27" t="str">
-        <v>Whitespoon sugar</v>
+        <v>Organic Apples</v>
       </c>
       <c r="C27" t="str">
-        <v>Sugar</v>
+        <v>Fruits</v>
       </c>
       <c r="D27" t="str">
-        <v>1kg</v>
+        <v>Granny Smith</v>
       </c>
       <c r="E27" t="str">
-        <v/>
+        <v>Fresh organic Granny Smith apples</v>
       </c>
       <c r="F27">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" t="str">
-        <v>Rice Spice</v>
+        <v xml:space="preserve">Fanta </v>
       </c>
       <c r="C28" t="str">
-        <v>Spices</v>
+        <v>Drinks</v>
       </c>
       <c r="D28" t="str">
-        <v>Small</v>
+        <v>350ml</v>
       </c>
       <c r="E28" t="str">
         <v/>
@@ -4294,16 +4357,16 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" t="str">
-        <v xml:space="preserve">Sunlight </v>
+        <v>Whitespoon sugar</v>
       </c>
       <c r="C29" t="str">
-        <v>Laundry Detergent</v>
+        <v>Sugar</v>
       </c>
       <c r="D29" t="str">
-        <v>300g</v>
+        <v>1kg</v>
       </c>
       <c r="E29" t="str">
         <v/>
@@ -4314,76 +4377,76 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30" t="str">
-        <v>Coca cola disposable</v>
+        <v>Rice Spice</v>
       </c>
       <c r="C30" t="str">
-        <v>Drinks</v>
+        <v>Spices</v>
       </c>
       <c r="D30" t="str">
-        <v>350mls</v>
+        <v>Small</v>
       </c>
       <c r="E30" t="str">
         <v/>
       </c>
       <c r="F30">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" t="str">
-        <v xml:space="preserve">Fanta </v>
+        <v xml:space="preserve">Sunlight </v>
       </c>
       <c r="C31" t="str">
-        <v>Drinks</v>
+        <v>Laundry Detergent</v>
       </c>
       <c r="D31" t="str">
-        <v>350ml</v>
+        <v>300g</v>
       </c>
       <c r="E31" t="str">
         <v/>
       </c>
       <c r="F31">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" t="str">
-        <v xml:space="preserve">Fanta </v>
+        <v>asdfgb</v>
       </c>
       <c r="C32" t="str">
-        <v>Drinks</v>
+        <v xml:space="preserve">sxcxs </v>
       </c>
       <c r="D32" t="str">
-        <v>500mls</v>
+        <v>axsazxs</v>
       </c>
       <c r="E32" t="str">
-        <v/>
+        <v>xsazxs</v>
       </c>
       <c r="F32">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B33" t="str">
-        <v>Coca cola bottled</v>
+        <v>Coca cola disposable</v>
       </c>
       <c r="C33" t="str">
         <v>Drinks</v>
       </c>
       <c r="D33" t="str">
-        <v>300mls</v>
+        <v>350mls</v>
       </c>
       <c r="E33" t="str">
         <v/>
@@ -4394,16 +4457,16 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B34" t="str">
-        <v>Tray of Eggs</v>
+        <v xml:space="preserve">Fanta </v>
       </c>
       <c r="C34" t="str">
-        <v>Eggs</v>
+        <v>Drinks</v>
       </c>
       <c r="D34" t="str">
-        <v xml:space="preserve">One tray </v>
+        <v>350ml</v>
       </c>
       <c r="E34" t="str">
         <v/>
@@ -4414,96 +4477,96 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
-        <v>Apple</v>
+        <v xml:space="preserve">Fanta </v>
       </c>
       <c r="C35" t="str">
-        <v>Fruit</v>
+        <v>Drinks</v>
       </c>
       <c r="D35" t="str">
-        <v>Gala</v>
+        <v>500mls</v>
       </c>
       <c r="E35" t="str">
-        <v>Gala Apple</v>
+        <v/>
       </c>
       <c r="F35">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
-        <v>Bananas</v>
+        <v>Coca cola bottled</v>
       </c>
       <c r="C36" t="str">
-        <v>Fruits</v>
+        <v>Drinks</v>
       </c>
       <c r="D36" t="str">
-        <v>Each</v>
+        <v>300mls</v>
       </c>
       <c r="E36" t="str">
         <v/>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37" t="str">
-        <v>White Onions</v>
+        <v>Tray of Eggs</v>
       </c>
       <c r="C37" t="str">
-        <v>Vegetables</v>
+        <v>Eggs</v>
       </c>
       <c r="D37" t="str">
-        <v>Small</v>
+        <v xml:space="preserve">One tray </v>
       </c>
       <c r="E37" t="str">
         <v/>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B38" t="str">
-        <v>Boom Washing Powder</v>
+        <v>Apple</v>
       </c>
       <c r="C38" t="str">
-        <v>Laundry Detergent</v>
+        <v>Fruit</v>
       </c>
       <c r="D38" t="str">
-        <v>250g</v>
+        <v>Gala</v>
       </c>
       <c r="E38" t="str">
-        <v/>
+        <v>Gala Apple</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B39" t="str">
-        <v xml:space="preserve">Mayonnaise </v>
+        <v>Bananas</v>
       </c>
       <c r="C39" t="str">
-        <v/>
+        <v>Fruits</v>
       </c>
       <c r="D39" t="str">
-        <v>375g</v>
+        <v>Each</v>
       </c>
       <c r="E39" t="str">
         <v/>
@@ -4514,54 +4577,74 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B40" t="str">
-        <v>Apple</v>
+        <v>White Onions</v>
       </c>
       <c r="C40" t="str">
-        <v>Fruit</v>
+        <v>Vegetables</v>
       </c>
       <c r="D40" t="str">
-        <v>Gala</v>
+        <v>Small</v>
       </c>
       <c r="E40" t="str">
-        <v>Gala Apple</v>
+        <v/>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B41" t="str">
-        <v>orange</v>
+        <v>Boom Washing Powder</v>
       </c>
       <c r="C41" t="str">
-        <v>fruit</v>
+        <v>Laundry Detergent</v>
       </c>
       <c r="D41" t="str">
-        <v/>
+        <v>250g</v>
       </c>
       <c r="E41" t="str">
         <v/>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>45</v>
+      </c>
+      <c r="B42" t="str">
+        <v xml:space="preserve">Mayonnaise </v>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v>375g</v>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G42"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4600,28 +4683,28 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
         <v>100.00</v>
       </c>
       <c r="C2" t="str">
-        <v>20.00</v>
+        <v>50.00</v>
       </c>
       <c r="D2" s="1">
-        <v>45548</v>
+        <v>45547</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2" t="str">
-        <v>Gamer Shop</v>
+        <v>Verve</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="str">
         <v>Market A</v>
@@ -4629,28 +4712,28 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>20.00</v>
+        <v>2.00</v>
       </c>
       <c r="C3" t="str">
-        <v>4.00</v>
+        <v>1000.00</v>
       </c>
       <c r="D3" s="1">
-        <v>45552</v>
+        <v>45547</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G3" t="str">
-        <v>BEMAC</v>
+        <v>Verve</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J3" t="str">
         <v>Market A</v>
@@ -4658,280 +4741,280 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>235.00</v>
+        <v>100.00</v>
       </c>
       <c r="C4" t="str">
         <v>1.00</v>
       </c>
       <c r="D4" s="1">
-        <v>45552</v>
+        <v>45547</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G4" t="str">
-        <v>BEMAC</v>
-      </c>
-      <c r="H4" t="str">
-        <v>BMAC</v>
+        <v>Verve</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Market A</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>24.00</v>
+        <v>1000.00</v>
       </c>
       <c r="C5" t="str">
         <v>1.00</v>
       </c>
       <c r="D5" s="1">
-        <v>45552</v>
+        <v>45547</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" t="str">
-        <v xml:space="preserve">NK </v>
-      </c>
-      <c r="H5" t="str">
-        <v xml:space="preserve">Moyo trading </v>
+        <v>Verve</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Market A</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>950.00</v>
+        <v>100.00</v>
       </c>
       <c r="C6" t="str">
-        <v>5.00</v>
+        <v>20.00</v>
       </c>
       <c r="D6" s="1">
-        <v>45552</v>
+        <v>45548</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G6" t="str">
-        <v>BEMAC</v>
-      </c>
-      <c r="H6" t="str">
-        <v>BMAC</v>
+        <v>Gamer Shop</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Market A</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>80.00</v>
+        <v>1000.00</v>
       </c>
       <c r="C7" t="str">
-        <v>5.00</v>
+        <v>20.00</v>
       </c>
       <c r="D7" s="1">
-        <v>45552</v>
+        <v>45548</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G7" t="str">
-        <v>BEMAC</v>
-      </c>
-      <c r="H7" t="str">
-        <v>BMAC</v>
+        <v>Verve</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Market A</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>100.00</v>
+        <v>1000.00</v>
       </c>
       <c r="C8" t="str">
-        <v>1.00</v>
+        <v>10.00</v>
       </c>
       <c r="D8" s="1">
-        <v>45552</v>
+        <v>45548</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G8" t="str">
-        <v>BEMAC</v>
+        <v>Verve</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Sanath</v>
       </c>
       <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8" t="str">
-        <v>Market A</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" t="str">
         <v>100.00</v>
       </c>
       <c r="C9" t="str">
-        <v>27.00</v>
+        <v>10.00</v>
       </c>
       <c r="D9" s="1">
-        <v>45552</v>
+        <v>45549</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G9" t="str">
-        <v>BEMAC</v>
+        <v>Verve</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="str">
-        <v>Market A</v>
+        <v>Market E</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>100.00</v>
+        <v>200.00</v>
       </c>
       <c r="C10" t="str">
-        <v>135.00</v>
+        <v>10000.00</v>
       </c>
       <c r="D10" s="1">
-        <v>45552</v>
+        <v>45549</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G10" t="str">
-        <v>BEMAC</v>
+        <v>Verve</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" t="str">
-        <v>Market A</v>
+        <v>Market E</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>20.00</v>
+        <v>1000.00</v>
       </c>
       <c r="C11" t="str">
-        <v>1.00</v>
+        <v>50.00</v>
       </c>
       <c r="D11" s="1">
-        <v>45552</v>
+        <v>45549</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G11" t="str">
-        <v>BEMAC</v>
-      </c>
-      <c r="H11" t="str">
-        <v>BMAC</v>
+        <v>Verve</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Market E</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>100.00</v>
+        <v>70.00</v>
       </c>
       <c r="C12" t="str">
-        <v>4.00</v>
+        <v>5.00</v>
       </c>
       <c r="D12" s="1">
-        <v>45552</v>
+        <v>45549</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G12" t="str">
-        <v>BEMAC</v>
+        <v>Verve</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J12" t="str">
-        <v>Market A</v>
+        <v>Market D</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>100.00</v>
+        <v>20.00</v>
       </c>
       <c r="C13" t="str">
-        <v>2.00</v>
+        <v>4.00</v>
       </c>
       <c r="D13" s="1">
         <v>45552</v>
       </c>
       <c r="E13">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -4940,18 +5023,18 @@
         <v>BEMAC</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J13" t="str">
-        <v>Market C</v>
+        <v>Market A</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>100.00</v>
+        <v>235.00</v>
       </c>
       <c r="C14" t="str">
         <v>1.00</v>
@@ -4960,7 +5043,7 @@
         <v>45552</v>
       </c>
       <c r="E14">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>12</v>
@@ -4972,24 +5055,24 @@
         <v>BMAC</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>30.00</v>
+        <v>24.00</v>
       </c>
       <c r="C15" t="str">
-        <v>5.00</v>
+        <v>1.00</v>
       </c>
       <c r="D15" s="1">
         <v>45552</v>
       </c>
       <c r="E15">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -4997,57 +5080,57 @@
       <c r="G15" t="str">
         <v xml:space="preserve">NK </v>
       </c>
+      <c r="H15" t="str">
+        <v xml:space="preserve">Moyo trading </v>
+      </c>
       <c r="I15">
-        <v>28</v>
-      </c>
-      <c r="J15" t="str">
-        <v>Market A</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>36.00</v>
+        <v>950.00</v>
       </c>
       <c r="C16" t="str">
-        <v>1.00</v>
+        <v>5.00</v>
       </c>
       <c r="D16" s="1">
-        <v>45553</v>
+        <v>45552</v>
       </c>
       <c r="E16">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F16">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G16" t="str">
-        <v>Emmas shop</v>
+        <v>BEMAC</v>
+      </c>
+      <c r="H16" t="str">
+        <v>BMAC</v>
       </c>
       <c r="I16">
-        <v>29</v>
-      </c>
-      <c r="J16" t="str">
-        <v>Market A</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>555.00</v>
+        <v>80.00</v>
       </c>
       <c r="C17" t="str">
-        <v>1.00</v>
+        <v>5.00</v>
       </c>
       <c r="D17" s="1">
-        <v>45554</v>
+        <v>45552</v>
       </c>
       <c r="E17">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>12</v>
@@ -5059,33 +5142,33 @@
         <v>BMAC</v>
       </c>
       <c r="I17">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B18" t="str">
         <v>100.00</v>
       </c>
       <c r="C18" t="str">
-        <v>1000.00</v>
+        <v>1.00</v>
       </c>
       <c r="D18" s="1">
-        <v>45556</v>
+        <v>45552</v>
       </c>
       <c r="E18">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F18">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G18" t="str">
-        <v>Sanaths shop</v>
+        <v>BEMAC</v>
       </c>
       <c r="I18">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="J18" t="str">
         <v>Market A</v>
@@ -5093,19 +5176,19 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>70.00</v>
+        <v>100.00</v>
       </c>
       <c r="C19" t="str">
-        <v>5.00</v>
+        <v>27.00</v>
       </c>
       <c r="D19" s="1">
-        <v>45560</v>
+        <v>45552</v>
       </c>
       <c r="E19">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -5114,7 +5197,7 @@
         <v>BEMAC</v>
       </c>
       <c r="I19">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J19" t="str">
         <v>Market A</v>
@@ -5122,28 +5205,28 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B20" t="str">
         <v>100.00</v>
       </c>
       <c r="C20" t="str">
-        <v>1.00</v>
+        <v>135.00</v>
       </c>
       <c r="D20" s="1">
-        <v>45565</v>
+        <v>45552</v>
       </c>
       <c r="E20">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="I20">
         <v>5</v>
-      </c>
-      <c r="G20" t="str">
-        <v>Verve</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
       </c>
       <c r="J20" t="str">
         <v>Market A</v>
@@ -5151,72 +5234,275 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>100.00</v>
+        <v>20.00</v>
       </c>
       <c r="C21" t="str">
-        <v>1000.00</v>
+        <v>1.00</v>
       </c>
       <c r="D21" s="1">
-        <v>45565</v>
+        <v>45552</v>
       </c>
       <c r="E21">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H21" t="str">
+        <v>BMAC</v>
+      </c>
+      <c r="I21">
         <v>5</v>
-      </c>
-      <c r="G21" t="str">
-        <v>Verve</v>
-      </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21" t="str">
-        <v>Market A</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B22" t="str">
         <v>100.00</v>
       </c>
       <c r="C22" t="str">
-        <v>1.00</v>
+        <v>4.00</v>
       </c>
       <c r="D22" s="1">
-        <v>45565</v>
+        <v>45552</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G22" t="str">
-        <v>Verve</v>
+        <v>BEMAC</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J22" t="str">
         <v>Market A</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Market C</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H24" t="str">
+        <v>BMAC</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>30.00</v>
+      </c>
+      <c r="C25" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E25">
+        <v>58</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25" t="str">
+        <v xml:space="preserve">NK </v>
+      </c>
+      <c r="I25">
+        <v>28</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Market A</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>36.00</v>
+      </c>
+      <c r="C26" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45553</v>
+      </c>
+      <c r="E26">
+        <v>59</v>
+      </c>
+      <c r="F26">
+        <v>38</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Emmas shop</v>
+      </c>
+      <c r="I26">
+        <v>29</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Market A</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>555.00</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45554</v>
+      </c>
+      <c r="E27">
+        <v>67</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+      <c r="G27" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H27" t="str">
+        <v>BMAC</v>
+      </c>
+      <c r="I27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C28" t="str">
+        <v>1000.00</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45556</v>
+      </c>
+      <c r="E28">
+        <v>84</v>
+      </c>
+      <c r="F28">
+        <v>40</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Sanaths shop</v>
+      </c>
+      <c r="I28">
+        <v>41</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Market A</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>70.00</v>
+      </c>
+      <c r="C29" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E29">
+        <v>31</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="G29" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Market A</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J29"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5237,6 +5523,9 @@
       <c r="E1" t="str">
         <v>user_id</v>
       </c>
+      <c r="F1" t="str">
+        <v>market_name</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -5342,31 +5631,99 @@
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Sanath</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Santa Cruz CA</v>
+      </c>
+      <c r="D8" t="str">
+        <v>8315294460</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B9" t="str">
         <v>BMAC</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C9" t="str">
         <v>Kalingalinga</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D9" t="str">
         <v>0123456789</v>
       </c>
-      <c r="E8">
-        <v>12</v>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>asdcfvgb</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SC</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="str">
+        <v>abcdefghijklmnop</v>
+      </c>
+      <c r="C11" t="str">
+        <v>SC</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1231231231</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="str">
+        <v>SCC</v>
+      </c>
+      <c r="D12" t="str">
+        <v>9898989898</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="str">
+        <v>MArket C</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5399,143 +5756,143 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="str">
-        <v>30.00</v>
+        <v>100.00</v>
       </c>
       <c r="D2" t="str">
-        <v>4.00</v>
+        <v>10.00</v>
       </c>
       <c r="E2" s="1">
-        <v>45552</v>
+        <v>45547</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G2" t="str">
-        <v>BEMAC</v>
+        <v>Verve</v>
       </c>
       <c r="H2">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="str">
-        <v>30.00</v>
+        <v>100.00</v>
       </c>
       <c r="D3" t="str">
-        <v>6.00</v>
+        <v>1.00</v>
       </c>
       <c r="E3" s="1">
-        <v>45552</v>
+        <v>45547</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G3" t="str">
-        <v>BEMAC</v>
+        <v>Verve</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1000.00</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45547</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="C4" t="str">
-        <v>5.00</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2.00</v>
-      </c>
-      <c r="E4" s="1">
-        <v>45552</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
       <c r="G4" t="str">
-        <v>BEMAC</v>
+        <v>Verve</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45548</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="C5" t="str">
-        <v>1.00</v>
-      </c>
-      <c r="D5" t="str">
-        <v>10.00</v>
-      </c>
-      <c r="E5" s="1">
-        <v>45552</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
       <c r="G5" t="str">
-        <v>BEMAC</v>
+        <v>Verve</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="str">
-        <v>5.00</v>
+        <v>30.00</v>
       </c>
       <c r="D6" t="str">
-        <v>5.00</v>
+        <v>4.00</v>
       </c>
       <c r="E6" s="1">
         <v>45552</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G6" t="str">
-        <v xml:space="preserve">NK </v>
+        <v>BEMAC</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="str">
-        <v>5.00</v>
+        <v>30.00</v>
       </c>
       <c r="D7" t="str">
         <v>6.00</v>
@@ -5544,27 +5901,27 @@
         <v>45552</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7" t="str">
-        <v xml:space="preserve">NK </v>
+        <v>BEMAC</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" t="str">
-        <v>1200.00</v>
+        <v>5.00</v>
       </c>
       <c r="D8" t="str">
-        <v>3.00</v>
+        <v>2.00</v>
       </c>
       <c r="E8" s="1">
         <v>45552</v>
@@ -5576,47 +5933,47 @@
         <v>BEMAC</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9" t="str">
-        <v>18.00</v>
+        <v>1.00</v>
       </c>
       <c r="D9" t="str">
-        <v>2.00</v>
+        <v>10.00</v>
       </c>
       <c r="E9" s="1">
         <v>45552</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G9" t="str">
-        <v xml:space="preserve">NK </v>
+        <v>BEMAC</v>
       </c>
       <c r="H9">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" t="str">
-        <v>2.00</v>
+        <v>5.00</v>
       </c>
       <c r="D10" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="E10" s="1">
         <v>45552</v>
@@ -5628,18 +5985,18 @@
         <v xml:space="preserve">NK </v>
       </c>
       <c r="H10">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" t="str">
-        <v>20.00</v>
+        <v>5.00</v>
       </c>
       <c r="D11" t="str">
         <v>6.00</v>
@@ -5648,53 +6005,53 @@
         <v>45552</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G11" t="str">
-        <v>BEMAC</v>
+        <v xml:space="preserve">NK </v>
       </c>
       <c r="H11">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C12" t="str">
-        <v>60.00</v>
+        <v>1200.00</v>
       </c>
       <c r="D12" t="str">
-        <v>2.00</v>
+        <v>3.00</v>
       </c>
       <c r="E12" s="1">
         <v>45552</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G12" t="str">
-        <v xml:space="preserve">NK </v>
+        <v>BEMAC</v>
       </c>
       <c r="H12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C13" t="str">
-        <v>20.00</v>
+        <v>18.00</v>
       </c>
       <c r="D13" t="str">
-        <v>20.00</v>
+        <v>2.00</v>
       </c>
       <c r="E13" s="1">
         <v>45552</v>
@@ -5706,47 +6063,47 @@
         <v xml:space="preserve">NK </v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="str">
-        <v>130.00</v>
+        <v>2.00</v>
       </c>
       <c r="D14" t="str">
-        <v>3.00</v>
+        <v>10.00</v>
       </c>
       <c r="E14" s="1">
         <v>45552</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G14" t="str">
-        <v>BEMAC</v>
+        <v xml:space="preserve">NK </v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" t="str">
-        <v>1.00</v>
+        <v>20.00</v>
       </c>
       <c r="D15" t="str">
-        <v>4.00</v>
+        <v>6.00</v>
       </c>
       <c r="E15" s="1">
         <v>45552</v>
@@ -5758,73 +6115,73 @@
         <v>BEMAC</v>
       </c>
       <c r="H15">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="str">
-        <v>55.00</v>
+        <v>60.00</v>
       </c>
       <c r="D16" t="str">
-        <v>8.00</v>
+        <v>2.00</v>
       </c>
       <c r="E16" s="1">
         <v>45552</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G16" t="str">
-        <v>BEMAC</v>
+        <v xml:space="preserve">NK </v>
       </c>
       <c r="H16">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C17" t="str">
-        <v>3.00</v>
+        <v>20.00</v>
       </c>
       <c r="D17" t="str">
-        <v>10.00</v>
+        <v>20.00</v>
       </c>
       <c r="E17" s="1">
         <v>45552</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G17" t="str">
-        <v>BEMAC</v>
+        <v xml:space="preserve">NK </v>
       </c>
       <c r="H17">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C18" t="str">
-        <v>58.00</v>
+        <v>130.00</v>
       </c>
       <c r="D18" t="str">
-        <v>5.00</v>
+        <v>3.00</v>
       </c>
       <c r="E18" s="1">
         <v>45552</v>
@@ -5836,21 +6193,21 @@
         <v>BEMAC</v>
       </c>
       <c r="H18">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" t="str">
-        <v>59.00</v>
+        <v>1.00</v>
       </c>
       <c r="D19" t="str">
-        <v>5.00</v>
+        <v>4.00</v>
       </c>
       <c r="E19" s="1">
         <v>45552</v>
@@ -5862,21 +6219,21 @@
         <v>BEMAC</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" t="str">
-        <v>54.00</v>
+        <v>55.00</v>
       </c>
       <c r="D20" t="str">
-        <v>7.00</v>
+        <v>8.00</v>
       </c>
       <c r="E20" s="1">
         <v>45552</v>
@@ -5888,21 +6245,21 @@
         <v>BEMAC</v>
       </c>
       <c r="H20">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" t="str">
-        <v>22.00</v>
+        <v>3.00</v>
       </c>
       <c r="D21" t="str">
-        <v>3.00</v>
+        <v>10.00</v>
       </c>
       <c r="E21" s="1">
         <v>45552</v>
@@ -5914,18 +6271,18 @@
         <v>BEMAC</v>
       </c>
       <c r="H21">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C22" t="str">
-        <v>19.00</v>
+        <v>58.00</v>
       </c>
       <c r="D22" t="str">
         <v>5.00</v>
@@ -5940,18 +6297,18 @@
         <v>BEMAC</v>
       </c>
       <c r="H22">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C23" t="str">
-        <v>73.00</v>
+        <v>59.00</v>
       </c>
       <c r="D23" t="str">
         <v>5.00</v>
@@ -5966,21 +6323,21 @@
         <v>BEMAC</v>
       </c>
       <c r="H23">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C24" t="str">
-        <v>5.00</v>
+        <v>54.00</v>
       </c>
       <c r="D24" t="str">
-        <v>3.00</v>
+        <v>7.00</v>
       </c>
       <c r="E24" s="1">
         <v>45552</v>
@@ -5992,21 +6349,21 @@
         <v>BEMAC</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C25" t="str">
-        <v>90.00</v>
+        <v>22.00</v>
       </c>
       <c r="D25" t="str">
-        <v>1.00</v>
+        <v>3.00</v>
       </c>
       <c r="E25" s="1">
         <v>45552</v>
@@ -6018,47 +6375,47 @@
         <v>BEMAC</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" t="str">
-        <v>3.00</v>
+        <v>19.00</v>
       </c>
       <c r="D26" t="str">
-        <v>90.00</v>
+        <v>5.00</v>
       </c>
       <c r="E26" s="1">
         <v>45552</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G26" t="str">
-        <v xml:space="preserve">NK </v>
+        <v>BEMAC</v>
       </c>
       <c r="H26">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C27" t="str">
-        <v>2.00</v>
+        <v>73.00</v>
       </c>
       <c r="D27" t="str">
-        <v>1.00</v>
+        <v>5.00</v>
       </c>
       <c r="E27" s="1">
         <v>45552</v>
@@ -6070,73 +6427,73 @@
         <v>BEMAC</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C28" t="str">
-        <v>45.00</v>
+        <v>5.00</v>
       </c>
       <c r="D28" t="str">
-        <v>2.00</v>
+        <v>3.00</v>
       </c>
       <c r="E28" s="1">
         <v>45552</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G28" t="str">
-        <v xml:space="preserve">NK </v>
+        <v>BEMAC</v>
       </c>
       <c r="H28">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C29" t="str">
-        <v>45.00</v>
+        <v>90.00</v>
       </c>
       <c r="D29" t="str">
-        <v>10.00</v>
+        <v>1.00</v>
       </c>
       <c r="E29" s="1">
         <v>45552</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G29" t="str">
-        <v xml:space="preserve">NK </v>
+        <v>BEMAC</v>
       </c>
       <c r="H29">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="str">
-        <v>45.00</v>
+        <v>3.00</v>
       </c>
       <c r="D30" t="str">
-        <v>1.00</v>
+        <v>90.00</v>
       </c>
       <c r="E30" s="1">
         <v>45552</v>
@@ -6148,18 +6505,18 @@
         <v xml:space="preserve">NK </v>
       </c>
       <c r="H30">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C31" t="str">
-        <v>45.00</v>
+        <v>2.00</v>
       </c>
       <c r="D31" t="str">
         <v>1.00</v>
@@ -6168,174 +6525,278 @@
         <v>45552</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G31" t="str">
-        <v xml:space="preserve">NK </v>
+        <v>BEMAC</v>
       </c>
       <c r="H31">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" t="str">
-        <v>5.00</v>
+        <v>45.00</v>
       </c>
       <c r="D32" t="str">
-        <v>5.00</v>
+        <v>2.00</v>
       </c>
       <c r="E32" s="1">
-        <v>45553</v>
+        <v>45552</v>
       </c>
       <c r="F32">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="G32" t="str">
-        <v>Emmas shop</v>
+        <v xml:space="preserve">NK </v>
       </c>
       <c r="H32">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" t="str">
-        <v>15.00</v>
+        <v>45.00</v>
       </c>
       <c r="D33" t="str">
-        <v>7.00</v>
+        <v>10.00</v>
       </c>
       <c r="E33" s="1">
-        <v>45554</v>
+        <v>45552</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G33" t="str">
-        <v>BEMAC</v>
+        <v xml:space="preserve">NK </v>
       </c>
       <c r="H33">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C34" t="str">
-        <v>32.00</v>
+        <v>45.00</v>
       </c>
       <c r="D34" t="str">
-        <v>7.00</v>
+        <v>1.00</v>
       </c>
       <c r="E34" s="1">
-        <v>45554</v>
+        <v>45552</v>
       </c>
       <c r="F34">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G34" t="str">
-        <v>BEMAC</v>
+        <v xml:space="preserve">NK </v>
       </c>
       <c r="H34">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C35" t="str">
-        <v>10.00</v>
+        <v>45.00</v>
       </c>
       <c r="D35" t="str">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
       <c r="E35" s="1">
-        <v>45554</v>
+        <v>45552</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G35" t="str">
-        <v>BEMAC</v>
+        <v xml:space="preserve">NK </v>
       </c>
       <c r="H35">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C36" t="str">
-        <v>100.00</v>
+        <v>5.00</v>
       </c>
       <c r="D36" t="str">
-        <v>1.00</v>
+        <v>5.00</v>
       </c>
       <c r="E36" s="1">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="F36">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G36" t="str">
-        <v>Sanaths shop</v>
+        <v>Emmas shop</v>
       </c>
       <c r="H36">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>31</v>
+      </c>
+      <c r="C37" t="str">
+        <v>15.00</v>
+      </c>
+      <c r="D37" t="str">
+        <v>7.00</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45554</v>
+      </c>
+      <c r="F37">
+        <v>12</v>
+      </c>
+      <c r="G37" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H37">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38" t="str">
+        <v>32.00</v>
+      </c>
+      <c r="D38" t="str">
+        <v>7.00</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45554</v>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+      <c r="G38" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H38">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>33</v>
+      </c>
+      <c r="C39" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="D39" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45554</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39" t="str">
+        <v>BEMAC</v>
+      </c>
+      <c r="H39">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>41</v>
+      </c>
+      <c r="C40" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="D40" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45556</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Sanaths shop</v>
+      </c>
+      <c r="H40">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
         <v>42</v>
       </c>
-      <c r="B37">
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C41" t="str">
         <v>3.00</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D41" t="str">
         <v>3.00</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E41" s="1">
         <v>45558</v>
       </c>
-      <c r="F37">
+      <c r="F41">
         <v>39</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G41" t="str">
         <v>Shopwase</v>
       </c>
-      <c r="H37">
+      <c r="H41">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6355,7 +6816,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6382,239 +6843,239 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
-        <v>1.0000</v>
+        <v>1000.0000</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>1.0000</v>
+        <v>0.0010</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>10.0000</v>
+      </c>
+      <c r="F4">
         <v>5</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4" t="str">
-        <v>27.0000</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="str">
+        <v>20.0000</v>
+      </c>
+      <c r="F5">
         <v>5</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5" t="str">
-        <v>0.0370</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
       <c r="D6">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E6" t="str">
-        <v>12.0000</v>
+        <v>1000.0000</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
       <c r="E7" t="str">
-        <v>0.0833</v>
+        <v>0.0010</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E8" t="str">
-        <v>1.0000</v>
+        <v>10.0000</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E9" t="str">
-        <v>1.0000</v>
+        <v>0.1000</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E10" t="str">
         <v>5.0000</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E11" t="str">
-        <v>4.0000</v>
+        <v>1.0000</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E12" t="str">
-        <v>0.2500</v>
+        <v>1.0000</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E13" t="str">
-        <v>6.0000</v>
+        <v>27.0000</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -6622,19 +7083,19 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E14" t="str">
-        <v>0.1667</v>
+        <v>0.0370</v>
       </c>
       <c r="F14">
         <v>12</v>
@@ -6642,59 +7103,59 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E15" t="str">
-        <v>10.0000</v>
+        <v>12.0000</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E16" t="str">
-        <v>0.1000</v>
+        <v>0.0833</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E17" t="str">
-        <v>30.0000</v>
+        <v>1.0000</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -6702,19 +7163,19 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E18" t="str">
-        <v>0.0333</v>
+        <v>1.0000</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -6722,59 +7183,59 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E19" t="str">
-        <v>50.0000</v>
+        <v>5.0000</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E20" t="str">
-        <v>0.0200</v>
+        <v>4.0000</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E21" t="str">
-        <v>3.0000</v>
+        <v>0.2500</v>
       </c>
       <c r="F21">
         <v>12</v>
@@ -6782,19 +7243,19 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E22" t="str">
-        <v>0.3333</v>
+        <v>6.0000</v>
       </c>
       <c r="F22">
         <v>12</v>
@@ -6802,19 +7263,19 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E23" t="str">
-        <v>30.0000</v>
+        <v>0.1667</v>
       </c>
       <c r="F23">
         <v>12</v>
@@ -6822,139 +7283,139 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E24" t="str">
-        <v>30.0000</v>
+        <v>10.0000</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E25" t="str">
-        <v>0.0333</v>
+        <v>0.1000</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E26" t="str">
-        <v>10.0000</v>
+        <v>30.0000</v>
       </c>
       <c r="F26">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E27" t="str">
-        <v>0.1000</v>
+        <v>0.0333</v>
       </c>
       <c r="F27">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E28" t="str">
-        <v>10.0000</v>
+        <v>50.0000</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C29">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E29" t="str">
-        <v>0.1000</v>
+        <v>0.0200</v>
       </c>
       <c r="F29">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E30" t="str">
-        <v>250.0000</v>
+        <v>3.0000</v>
       </c>
       <c r="F30">
         <v>12</v>
@@ -6962,19 +7423,19 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E31" t="str">
-        <v>0.0040</v>
+        <v>0.3333</v>
       </c>
       <c r="F31">
         <v>12</v>
@@ -6982,19 +7443,19 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E32" t="str">
-        <v>5.0000</v>
+        <v>30.0000</v>
       </c>
       <c r="F32">
         <v>12</v>
@@ -7002,19 +7463,19 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>18</v>
       </c>
       <c r="C33">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D33">
         <v>35</v>
       </c>
       <c r="E33" t="str">
-        <v>10.0000</v>
+        <v>30.0000</v>
       </c>
       <c r="F33">
         <v>12</v>
@@ -7022,19 +7483,19 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E34" t="str">
-        <v>12.0000</v>
+        <v>0.0333</v>
       </c>
       <c r="F34">
         <v>12</v>
@@ -7042,19 +7503,19 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D35">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E35" t="str">
-        <v>0.0833</v>
+        <v>10.0000</v>
       </c>
       <c r="F35">
         <v>12</v>
@@ -7062,19 +7523,19 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D36">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E36" t="str">
-        <v>6.0000</v>
+        <v>0.1000</v>
       </c>
       <c r="F36">
         <v>12</v>
@@ -7082,19 +7543,19 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E37" t="str">
-        <v>0.1667</v>
+        <v>10.0000</v>
       </c>
       <c r="F37">
         <v>12</v>
@@ -7102,19 +7563,19 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E38" t="str">
-        <v>1.0000</v>
+        <v>0.1000</v>
       </c>
       <c r="F38">
         <v>12</v>
@@ -7122,19 +7583,19 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C39">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D39">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E39" t="str">
-        <v>1.0000</v>
+        <v>250.0000</v>
       </c>
       <c r="F39">
         <v>12</v>
@@ -7142,19 +7603,19 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C40">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D40">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E40" t="str">
-        <v>12.0000</v>
+        <v>0.0040</v>
       </c>
       <c r="F40">
         <v>12</v>
@@ -7162,19 +7623,19 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C41">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D41">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E41" t="str">
-        <v>0.0833</v>
+        <v>5.0000</v>
       </c>
       <c r="F41">
         <v>12</v>
@@ -7182,19 +7643,19 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C42">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D42">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E42" t="str">
-        <v>6.0000</v>
+        <v>10.0000</v>
       </c>
       <c r="F42">
         <v>12</v>
@@ -7202,19 +7663,19 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C43">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D43">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E43" t="str">
-        <v>0.1667</v>
+        <v>12.0000</v>
       </c>
       <c r="F43">
         <v>12</v>
@@ -7222,156 +7683,159 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C44">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D44">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E44" t="str">
-        <v>50.0000</v>
+        <v>0.0833</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D45">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E45" t="str">
-        <v>0.0200</v>
+        <v>6.0000</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>46</v>
       </c>
       <c r="E46" t="str">
-        <v>50.0000</v>
+        <v>0.1667</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C47">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D47">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E47" t="str">
-        <v>10.0000</v>
+        <v>1.0000</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C48">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D48">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E48" t="str">
-        <v>0.1000</v>
+        <v>1.0000</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C49">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D49">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E49" t="str">
-        <v>1.0000</v>
+        <v>12.0000</v>
       </c>
       <c r="F49">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C50">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D50">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E50" t="str">
-        <v>5.0000</v>
+        <v>0.0833</v>
       </c>
       <c r="F50">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C51">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D51">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E51" t="str">
-        <v>12.0000</v>
+        <v>6.0000</v>
       </c>
       <c r="F51">
         <v>12</v>
@@ -7379,19 +7843,19 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B52">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C52">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D52">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E52" t="str">
-        <v>0.0833</v>
+        <v>0.1667</v>
       </c>
       <c r="F52">
         <v>12</v>
@@ -7399,667 +7863,684 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C53">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D53">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E53" t="str">
-        <v>20.0000</v>
+        <v>50.0000</v>
       </c>
       <c r="F53">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C54">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D54">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E54" t="str">
-        <v>0.0500</v>
+        <v>0.0200</v>
       </c>
       <c r="F54">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C55">
-        <v>70</v>
-      </c>
-      <c r="D55">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E55" t="str">
-        <v>10.0000</v>
+        <v>50.0000</v>
       </c>
       <c r="F55">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C56">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D56">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E56" t="str">
         <v>10.0000</v>
       </c>
       <c r="F56">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C57">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D57">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E57" t="str">
         <v>0.1000</v>
       </c>
       <c r="F57">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C58">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D58">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E58" t="str">
-        <v>0.1000</v>
+        <v>1.0000</v>
       </c>
       <c r="F58">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B59">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C59">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D59">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E59" t="str">
-        <v>12.0000</v>
+        <v>5.0000</v>
       </c>
       <c r="F59">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D60">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="E60" t="str">
-        <v>0.0833</v>
+        <v>10.0000</v>
       </c>
       <c r="F60">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C61">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D61">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E61" t="str">
-        <v>24.0000</v>
+        <v>12.0000</v>
       </c>
       <c r="F61">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C62">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D62">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E62" t="str">
-        <v>0.0417</v>
+        <v>0.0833</v>
       </c>
       <c r="F62">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C63">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D63">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E63" t="str">
-        <v>12.0000</v>
+        <v>20.0000</v>
       </c>
       <c r="F63">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C64">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D64">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E64" t="str">
-        <v>0.0833</v>
+        <v>0.0500</v>
       </c>
       <c r="F64">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C65">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D65">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E65" t="str">
-        <v>24.0000</v>
+        <v>10.0000</v>
       </c>
       <c r="F65">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C66">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D66">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E66" t="str">
-        <v>0.0417</v>
+        <v>10.0000</v>
       </c>
       <c r="F66">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C67">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D67">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E67" t="str">
-        <v>30.0000</v>
+        <v>0.1000</v>
       </c>
       <c r="F67">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C68">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D68">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E68" t="str">
-        <v>0.0333</v>
+        <v>0.1000</v>
       </c>
       <c r="F68">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C69">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D69">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E69" t="str">
-        <v>1000.0000</v>
+        <v>12.0000</v>
       </c>
       <c r="F69">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C70">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D70">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E70" t="str">
-        <v>0.0010</v>
+        <v>0.0833</v>
       </c>
       <c r="F70">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C71">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D71">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E71" t="str">
-        <v>5.0000</v>
+        <v>24.0000</v>
       </c>
       <c r="F71">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C72">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D72">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E72" t="str">
-        <v>18.0000</v>
+        <v>0.0417</v>
       </c>
       <c r="F72">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C73">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D73">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E73" t="str">
-        <v>0.0556</v>
+        <v>12.0000</v>
       </c>
       <c r="F73">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C74">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D74">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E74" t="str">
-        <v>180.0000</v>
+        <v>0.0833</v>
       </c>
       <c r="F74">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C75">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D75">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E75" t="str">
-        <v>6.0000</v>
+        <v>24.0000</v>
       </c>
       <c r="F75">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C76">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D76">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E76" t="str">
-        <v>0.1667</v>
+        <v>0.0417</v>
       </c>
       <c r="F76">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C77">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D77">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E77" t="str">
-        <v>1000.0000</v>
+        <v>30.0000</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C78">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D78">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E78" t="str">
-        <v>0.0010</v>
+        <v>0.0333</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C79">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D79">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E79" t="str">
-        <v>10.0000</v>
+        <v>1000.0000</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C80">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D80">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E80" t="str">
-        <v>20.0000</v>
+        <v>0.0010</v>
       </c>
       <c r="F80">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C81">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D81">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E81" t="str">
-        <v>20.0000</v>
+        <v>5.0000</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C82">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D82">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E82" t="str">
-        <v>1234.0000</v>
+        <v>18.0000</v>
       </c>
       <c r="F82">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C83">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D83">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E83" t="str">
-        <v>1234.0000</v>
+        <v>0.0556</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C84">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D84">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E84" t="str">
-        <v>12.0000</v>
+        <v>180.0000</v>
       </c>
       <c r="F84">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C85">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D85">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E85" t="str">
-        <v>90.0000</v>
+        <v>6.0000</v>
       </c>
       <c r="F85">
-        <v>5</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>89</v>
+      </c>
+      <c r="B86">
+        <v>45</v>
+      </c>
+      <c r="C86">
+        <v>90</v>
+      </c>
+      <c r="D86">
+        <v>89</v>
+      </c>
+      <c r="E86" t="str">
+        <v>0.1667</v>
+      </c>
+      <c r="F86">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F85"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F86"/>
   </ignoredErrors>
 </worksheet>
 </file>